--- a/experiments/analysis/experiments-on-juliet-201703.xlsx
+++ b/experiments/analysis/experiments-on-juliet-201703.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14420" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14340" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="web-google" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="99">
   <si>
     <t>u3-1</t>
   </si>
@@ -599,13 +599,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1168,11 +1168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101440256"/>
-        <c:axId val="-2071813424"/>
+        <c:axId val="-2032337408"/>
+        <c:axId val="-2070704000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101440256"/>
+        <c:axId val="-2032337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071813424"/>
+        <c:crossAx val="-2070704000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071813424"/>
+        <c:axId val="-2070704000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101440256"/>
+        <c:crossAx val="-2032337408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1833,11 +1833,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2098958080"/>
-        <c:axId val="-2098951696"/>
+        <c:axId val="-2102263840"/>
+        <c:axId val="-2009120016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098958080"/>
+        <c:axId val="-2102263840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098951696"/>
+        <c:crossAx val="-2009120016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098951696"/>
+        <c:axId val="-2009120016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098958080"/>
+        <c:crossAx val="-2102263840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2504,11 +2504,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2098898960"/>
-        <c:axId val="-2098892576"/>
+        <c:axId val="-2044673536"/>
+        <c:axId val="-2031790000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098898960"/>
+        <c:axId val="-2044673536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098892576"/>
+        <c:crossAx val="-2031790000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098892576"/>
+        <c:axId val="-2031790000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098898960"/>
+        <c:crossAx val="-2044673536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3327,11 +3327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067727168"/>
-        <c:axId val="-2067721376"/>
+        <c:axId val="-2044700816"/>
+        <c:axId val="-2063831200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067727168"/>
+        <c:axId val="-2044700816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067721376"/>
+        <c:crossAx val="-2063831200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,7 +3428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067721376"/>
+        <c:axId val="-2063831200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +3525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067727168"/>
+        <c:crossAx val="-2044700816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3891,11 +3891,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2069736208"/>
-        <c:axId val="-2069729744"/>
+        <c:axId val="-2008979808"/>
+        <c:axId val="-2008973344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069736208"/>
+        <c:axId val="-2008979808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +4002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069729744"/>
+        <c:crossAx val="-2008973344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +4010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069729744"/>
+        <c:axId val="-2008973344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +4117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069736208"/>
+        <c:crossAx val="-2008979808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4681,11 +4681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099231184"/>
-        <c:axId val="-2099225488"/>
+        <c:axId val="-2032972784"/>
+        <c:axId val="-2012829568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099231184"/>
+        <c:axId val="-2032972784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099225488"/>
+        <c:crossAx val="-2012829568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4787,7 +4787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099225488"/>
+        <c:axId val="-2012829568"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4886,7 +4886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099231184"/>
+        <c:crossAx val="-2032972784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5001,7 +5001,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5490,11 +5489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099165584"/>
-        <c:axId val="-2099159600"/>
+        <c:axId val="2138736656"/>
+        <c:axId val="2139007664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099165584"/>
+        <c:axId val="2138736656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5523,7 +5522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5584,7 +5582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099159600"/>
+        <c:crossAx val="2139007664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5592,7 +5590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099159600"/>
+        <c:axId val="2139007664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5690,7 +5687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099165584"/>
+        <c:crossAx val="2138736656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5704,7 +5701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6052,11 +6048,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2099123104"/>
-        <c:axId val="-2104713344"/>
+        <c:axId val="-2008668512"/>
+        <c:axId val="-2033258352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099123104"/>
+        <c:axId val="-2008668512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6096,7 +6092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104713344"/>
+        <c:crossAx val="-2033258352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6104,7 +6100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104713344"/>
+        <c:axId val="-2033258352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,7 +6148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099123104"/>
+        <c:crossAx val="-2008668512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6826,11 +6822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099140128"/>
-        <c:axId val="-2099137168"/>
+        <c:axId val="-2008830224"/>
+        <c:axId val="-2008379632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099140128"/>
+        <c:axId val="-2008830224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6870,7 +6866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099137168"/>
+        <c:crossAx val="-2008379632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6878,7 +6874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099137168"/>
+        <c:axId val="-2008379632"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6927,7 +6923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099140128"/>
+        <c:crossAx val="-2008830224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7041,7 +7037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7540,11 +7535,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2069617568"/>
-        <c:axId val="-2069611264"/>
+        <c:axId val="-2101550704"/>
+        <c:axId val="-2031764304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069617568"/>
+        <c:axId val="-2101550704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,7 +7573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7639,7 +7633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069611264"/>
+        <c:crossAx val="-2031764304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7647,7 +7641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069611264"/>
+        <c:axId val="-2031764304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7695,7 +7689,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7750,7 +7743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069617568"/>
+        <c:crossAx val="-2101550704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7764,7 +7757,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8363,11 +8355,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2099058528"/>
-        <c:axId val="-2099052128"/>
+        <c:axId val="-2063896512"/>
+        <c:axId val="-2030858464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099058528"/>
+        <c:axId val="-2063896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8473,7 +8465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099052128"/>
+        <c:crossAx val="-2030858464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8481,7 +8473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099052128"/>
+        <c:axId val="-2030858464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8595,7 +8587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099058528"/>
+        <c:crossAx val="-2063896512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16294,16 +16286,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:X20"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:X20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17585,16 +17577,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="Q29:T29"/>
     <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17605,8 +17597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K56" workbookViewId="0">
-      <selection activeCell="X72" sqref="X72"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17658,42 +17650,42 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -17891,44 +17883,44 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
@@ -18138,10 +18130,8 @@
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
@@ -18149,6 +18139,9 @@
       </c>
       <c r="I29" t="s">
         <v>74</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
@@ -18307,42 +18300,42 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D46" s="22"/>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32" t="s">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
@@ -18529,42 +18522,42 @@
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D56" s="22"/>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32" t="s">
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32" t="s">
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D57" s="22" t="s">
@@ -19070,6 +19063,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="D45:P45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="D55:P55"/>
     <mergeCell ref="D5:P5"/>
     <mergeCell ref="D17:P17"/>
     <mergeCell ref="E18:H18"/>
@@ -19078,14 +19079,6 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="D45:P45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="D55:P55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20754,17 +20747,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="G40:H41"/>
@@ -20778,6 +20760,17 @@
     <mergeCell ref="C76:D77"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20807,31 +20800,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="2">
         <v>24884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2">
         <v>79714</v>
       </c>
@@ -21058,22 +21051,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="2">
         <v>36848</v>
       </c>
@@ -21082,10 +21075,10 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="2">
         <v>74601</v>
       </c>
@@ -21389,10 +21382,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="2">
         <f t="shared" ref="D39:D47" si="0">AVERAGE(D22,D5)</f>
         <v>30866</v>
@@ -21437,10 +21430,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>77157.5</v>
@@ -21779,31 +21772,31 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="33"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="2">
         <v>12941</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="2">
         <v>23739</v>
       </c>
@@ -22116,31 +22109,31 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="33"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="2">
         <v>12389</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="33"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="2">
         <v>27078</v>
       </c>
@@ -22449,6 +22442,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
@@ -22463,22 +22472,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/experiments/analysis/experiments-on-juliet-201703.xlsx
+++ b/experiments/analysis/experiments-on-juliet-201703.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14340" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="web-google" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="nyc-u-d-breakdown" sheetId="6" r:id="rId4"/>
     <sheet name="nyc-u-e-breakdown" sheetId="4" r:id="rId5"/>
     <sheet name="redraw" sheetId="5" r:id="rId6"/>
+    <sheet name="twitter" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="107">
   <si>
     <t>u3-1</t>
   </si>
@@ -136,13 +137,7 @@
     <t>web-google</t>
   </si>
   <si>
-    <t>Unit: min</t>
-  </si>
-  <si>
     <t>Unit: ms</t>
-  </si>
-  <si>
-    <t>unit: mins</t>
   </si>
   <si>
     <t>experimental results in web-google-u-e.norandom.40threads.20170310.log</t>
@@ -326,6 +321,36 @@
   </si>
   <si>
     <t>j-053</t>
+  </si>
+  <si>
+    <t>Unit: s</t>
+  </si>
+  <si>
+    <t>unit: s</t>
+  </si>
+  <si>
+    <t>unit:ms</t>
+  </si>
+  <si>
+    <t>1.24hr in total</t>
+  </si>
+  <si>
+    <t>2.88hr in total</t>
+  </si>
+  <si>
+    <t>27.65hr in toital</t>
+  </si>
+  <si>
+    <t>17.59hr in total</t>
+  </si>
+  <si>
+    <t>2,4: outofMemory</t>
+  </si>
+  <si>
+    <t>twitter-u-e.8-16.random.40threads.20170314.log</t>
+  </si>
+  <si>
+    <t>pause here</t>
   </si>
 </sst>
 </file>
@@ -556,7 +581,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -590,6 +615,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,13 +626,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,6 +713,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -787,19 +815,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.546761111111111</c:v>
+                  <c:v>32.80566666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.809672222222222</c:v>
+                  <c:v>48.58033333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.781777777777778</c:v>
+                  <c:v>46.90666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.792216666666667</c:v>
+                  <c:v>47.533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.810233333333333</c:v>
+                  <c:v>48.614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,19 +903,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.609461111111111</c:v>
+                  <c:v>36.56766666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.039216666666667</c:v>
+                  <c:v>62.353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.006866666666667</c:v>
+                  <c:v>60.412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.015494444444444</c:v>
+                  <c:v>60.92966666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.101383333333333</c:v>
+                  <c:v>66.083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,19 +991,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.568972222222222</c:v>
+                  <c:v>34.13833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.148533333333333</c:v>
+                  <c:v>68.912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.130055555555555</c:v>
+                  <c:v>67.80333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.016611111111111</c:v>
+                  <c:v>60.99666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.044494444444444</c:v>
+                  <c:v>62.66966666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,19 +1079,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.709111111111111</c:v>
+                  <c:v>42.54666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.128355555555555</c:v>
+                  <c:v>67.70133333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.189116666666667</c:v>
+                  <c:v>71.347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.246033333333333</c:v>
+                  <c:v>74.762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.251283333333333</c:v>
+                  <c:v>75.077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,19 +1167,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.676205555555555</c:v>
+                  <c:v>40.57233333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.239416666666667</c:v>
+                  <c:v>74.365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.245577777777778</c:v>
+                  <c:v>74.73466666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.278616666666667</c:v>
+                  <c:v>76.717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.341077777777778</c:v>
+                  <c:v>80.46466666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,11 +1196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2032337408"/>
-        <c:axId val="-2070704000"/>
+        <c:axId val="-2121010912"/>
+        <c:axId val="-2121003040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2032337408"/>
+        <c:axId val="-2121010912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,6 +1229,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1261,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070704000"/>
+        <c:crossAx val="-2121003040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070704000"/>
+        <c:axId val="-2121003040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,11 +1336,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runing time (mins)</a:t>
+                  <a:t>Runing time (second)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1338,7 +1368,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1366,7 +1396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032337408"/>
+        <c:crossAx val="-2121010912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,6 +1410,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1496,6 +1527,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1534,7 +1566,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$D$4</c:f>
+              <c:f>redraw!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1555,7 +1587,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$C$5:$C$9</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1579,24 +1611,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$D$5:$D$9</c:f>
+              <c:f>redraw!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37508.0</c:v>
+                  <c:v>37.508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44442.0</c:v>
+                  <c:v>44.442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40592.0</c:v>
+                  <c:v>40.592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46749.0</c:v>
+                  <c:v>46.749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38729.0</c:v>
+                  <c:v>38.729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,7 +1639,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$E$4</c:f>
+              <c:f>redraw!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1630,7 +1662,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$C$5:$C$9</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1654,24 +1686,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$E$5:$E$9</c:f>
+              <c:f>redraw!$E$12:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>195992.0</c:v>
+                  <c:v>195.992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196042.0</c:v>
+                  <c:v>196.042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190941.0</c:v>
+                  <c:v>190.941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200955.0</c:v>
+                  <c:v>200.955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205949.0</c:v>
+                  <c:v>205.949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1714,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$F$4</c:f>
+              <c:f>redraw!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1703,7 +1735,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$C$5:$C$9</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1727,24 +1759,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$F$5:$F$9</c:f>
+              <c:f>redraw!$F$12:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48689.0</c:v>
+                  <c:v>48.689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55477.0</c:v>
+                  <c:v>55.477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51646.0</c:v>
+                  <c:v>51.646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54537.0</c:v>
+                  <c:v>54.537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48618.0</c:v>
+                  <c:v>48.618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,7 +1787,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$G$4</c:f>
+              <c:f>redraw!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1776,7 +1808,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$C$5:$C$9</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1800,24 +1832,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$G$5:$G$9</c:f>
+              <c:f>redraw!$G$12:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>265982.0</c:v>
+                  <c:v>265.982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275982.0</c:v>
+                  <c:v>275.982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270970.0</c:v>
+                  <c:v>270.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>281032.0</c:v>
+                  <c:v>281.032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271042.0</c:v>
+                  <c:v>271.042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,11 +1865,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102263840"/>
-        <c:axId val="-2009120016"/>
+        <c:axId val="2117612848"/>
+        <c:axId val="2117619232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102263840"/>
+        <c:axId val="2117612848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,6 +1915,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1943,7 +1976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009120016"/>
+        <c:crossAx val="2117619232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2009120016"/>
+        <c:axId val="2117619232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2034,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> time (ms)</a:t>
+                  <a:t> time (second)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -2011,6 +2044,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2065,7 +2099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102263840"/>
+        <c:crossAx val="2117612848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2079,6 +2113,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2191,6 +2226,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2229,7 +2265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$L$4</c:f>
+              <c:f>redraw!$L$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2250,7 +2286,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$5:$K$8</c:f>
+              <c:f>redraw!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2271,21 +2307,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$L$5:$L$8</c:f>
+              <c:f>redraw!$L$12:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>91767.0</c:v>
+                  <c:v>91.767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80703.0</c:v>
+                  <c:v>80.703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134455.0</c:v>
+                  <c:v>134.455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79187.0</c:v>
+                  <c:v>79.187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,7 +2332,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$M$4</c:f>
+              <c:f>redraw!$M$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2319,7 +2355,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$5:$K$8</c:f>
+              <c:f>redraw!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2340,21 +2376,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$M$5:$M$8</c:f>
+              <c:f>redraw!$M$12:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>805985.0</c:v>
+                  <c:v>805.985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>865956.0</c:v>
+                  <c:v>865.956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>776073.0</c:v>
+                  <c:v>776.073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>880999.0</c:v>
+                  <c:v>880.999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,7 +2401,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$N$4</c:f>
+              <c:f>redraw!$N$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2386,7 +2422,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$5:$K$8</c:f>
+              <c:f>redraw!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2407,21 +2443,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$N$5:$N$8</c:f>
+              <c:f>redraw!$N$12:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>355056.0</c:v>
+                  <c:v>355.056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187405.0</c:v>
+                  <c:v>187.405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136158.0</c:v>
+                  <c:v>136.158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130959.0</c:v>
+                  <c:v>130.959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,7 +2468,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$O$4</c:f>
+              <c:f>redraw!$O$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2453,7 +2489,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$5:$K$8</c:f>
+              <c:f>redraw!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2474,21 +2510,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$O$5:$O$8</c:f>
+              <c:f>redraw!$O$12:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.746013E6</c:v>
+                  <c:v>1746.013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.461103E6</c:v>
+                  <c:v>1461.103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.536026E6</c:v>
+                  <c:v>1536.026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.501104E6</c:v>
+                  <c:v>1501.104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,11 +2540,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2044673536"/>
-        <c:axId val="-2031790000"/>
+        <c:axId val="2117671984"/>
+        <c:axId val="2117678368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2044673536"/>
+        <c:axId val="2117671984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,6 +2590,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2614,7 +2651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031790000"/>
+        <c:crossAx val="2117678368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2031790000"/>
+        <c:axId val="2117678368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2709,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> time (ms)</a:t>
+                  <a:t> time (second)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -2682,6 +2719,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2736,7 +2774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044673536"/>
+        <c:crossAx val="2117671984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,6 +2788,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2946,19 +2985,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.566894444444444</c:v>
+                  <c:v>94.01366666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.830538888888889</c:v>
+                  <c:v>109.8323333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.599577777777778</c:v>
+                  <c:v>95.97466666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.590044444444445</c:v>
+                  <c:v>95.40266666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.568694444444444</c:v>
+                  <c:v>94.12166666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,19 +3073,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.768344444444444</c:v>
+                  <c:v>106.1006666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.426177777777777</c:v>
+                  <c:v>145.5706666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.174305555555555</c:v>
+                  <c:v>130.4583333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.200177777777777</c:v>
+                  <c:v>132.0106666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.419905555555556</c:v>
+                  <c:v>145.1943333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,19 +3161,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.66695</c:v>
+                  <c:v>100.017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.309877777777777</c:v>
+                  <c:v>138.5926666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.170211111111111</c:v>
+                  <c:v>130.2126666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.208277777777777</c:v>
+                  <c:v>132.4966666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.226777777777777</c:v>
+                  <c:v>133.6066666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,19 +3249,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.319783333333333</c:v>
+                  <c:v>139.187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.921955555555556</c:v>
+                  <c:v>175.3173333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.74338888888889</c:v>
+                  <c:v>164.6033333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.631616666666666</c:v>
+                  <c:v>157.897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.943561111111111</c:v>
+                  <c:v>176.6136666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3298,19 +3337,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.158</c:v>
+                  <c:v>129.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.140027777777777</c:v>
+                  <c:v>188.4016666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.850605555555556</c:v>
+                  <c:v>171.0363333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.212383333333333</c:v>
+                  <c:v>192.743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.990433333333333</c:v>
+                  <c:v>179.426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,11 +3366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2044700816"/>
-        <c:axId val="-2063831200"/>
+        <c:axId val="-2116006960"/>
+        <c:axId val="-2116012800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2044700816"/>
+        <c:axId val="-2116006960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063831200"/>
+        <c:crossAx val="-2116012800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,9 +3467,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063831200"/>
+        <c:axId val="-2116012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3466,7 +3507,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runing time (mins)</a:t>
+                  <a:t>Runing time (second)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3497,7 +3538,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3525,9 +3566,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044700816"/>
+        <c:crossAx val="-2116006960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50.0"/>
+        <c:minorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3891,11 +3934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2008979808"/>
-        <c:axId val="-2008973344"/>
+        <c:axId val="2117500496"/>
+        <c:axId val="2117506960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2008979808"/>
+        <c:axId val="2117500496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +4045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008973344"/>
+        <c:crossAx val="2117506960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +4053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2008973344"/>
+        <c:axId val="2117506960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008979808"/>
+        <c:crossAx val="2117500496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4681,11 +4724,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2032972784"/>
-        <c:axId val="-2012829568"/>
+        <c:axId val="-2120850160"/>
+        <c:axId val="-2120844464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2032972784"/>
+        <c:axId val="-2120850160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012829568"/>
+        <c:crossAx val="-2120844464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4787,7 +4830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2012829568"/>
+        <c:axId val="-2120844464"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4886,7 +4929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032972784"/>
+        <c:crossAx val="-2120850160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5489,11 +5532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138736656"/>
-        <c:axId val="2139007664"/>
+        <c:axId val="-2120780880"/>
+        <c:axId val="-2120774896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138736656"/>
+        <c:axId val="-2120780880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +5625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139007664"/>
+        <c:crossAx val="-2120774896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5590,7 +5633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139007664"/>
+        <c:axId val="-2120774896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5687,7 +5730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138736656"/>
+        <c:crossAx val="-2120780880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5800,7 +5843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6048,11 +6090,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2008668512"/>
-        <c:axId val="-2033258352"/>
+        <c:axId val="-2122120064"/>
+        <c:axId val="-2122116608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2008668512"/>
+        <c:axId val="-2122120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,7 +6134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033258352"/>
+        <c:crossAx val="-2122116608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6100,7 +6142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2033258352"/>
+        <c:axId val="-2122116608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,7 +6190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008668512"/>
+        <c:crossAx val="-2122120064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6162,7 +6204,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6262,7 +6303,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6822,11 +6862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008830224"/>
-        <c:axId val="-2008379632"/>
+        <c:axId val="2117563104"/>
+        <c:axId val="2117566128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2008830224"/>
+        <c:axId val="2117563104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +6906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008379632"/>
+        <c:crossAx val="2117566128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6874,7 +6914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2008379632"/>
+        <c:axId val="2117566128"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6923,7 +6963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008830224"/>
+        <c:crossAx val="2117563104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6937,7 +6977,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7535,11 +7574,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101550704"/>
-        <c:axId val="-2031764304"/>
+        <c:axId val="-2120672352"/>
+        <c:axId val="-2120666048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101550704"/>
+        <c:axId val="-2120672352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7633,7 +7672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031764304"/>
+        <c:crossAx val="-2120666048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7641,7 +7680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2031764304"/>
+        <c:axId val="-2120666048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7743,7 +7782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101550704"/>
+        <c:crossAx val="-2120672352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8355,11 +8394,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2063896512"/>
-        <c:axId val="-2030858464"/>
+        <c:axId val="-2121988208"/>
+        <c:axId val="-2121981808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2063896512"/>
+        <c:axId val="-2121988208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8465,7 +8504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030858464"/>
+        <c:crossAx val="-2121981808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8473,7 +8512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030858464"/>
+        <c:axId val="-2121981808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8587,7 +8626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063896512"/>
+        <c:crossAx val="-2121988208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14937,13 +14976,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14967,13 +15006,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15259,10 +15298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15279,7 +15318,7 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -15295,49 +15334,49 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="29" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="29" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="29" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="29" t="s">
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="31"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="33"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D7" s="13" t="s">
@@ -15754,47 +15793,47 @@
         <v>80464.666666666672</v>
       </c>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="29" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="29" t="s">
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="29" t="s">
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="29" t="s">
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="31"/>
-    </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="33"/>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="13" t="s">
         <v>2</v>
       </c>
@@ -15859,443 +15898,472 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="13">
         <v>1</v>
       </c>
       <c r="E22" s="16">
-        <f>E8/1000/60</f>
-        <v>0.64234999999999998</v>
+        <f>E8/1000</f>
+        <v>38.540999999999997</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" ref="F22:S22" si="5">F8/1000/60</f>
-        <v>0.47320000000000001</v>
+        <f t="shared" ref="F22:X22" si="5">F8/1000</f>
+        <v>28.391999999999999</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="5"/>
-        <v>0.52473333333333338</v>
+        <v>31.484000000000002</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="5"/>
-        <v>0.54676111111111114</v>
+        <v>32.805666666666667</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="5"/>
-        <v>0.60814999999999997</v>
+        <v>36.488999999999997</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="5"/>
-        <v>0.57635000000000003</v>
+        <v>34.581000000000003</v>
       </c>
       <c r="K22" s="16">
         <f t="shared" si="5"/>
-        <v>0.64388333333333336</v>
+        <v>38.633000000000003</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>0.60946111111111112</v>
+        <v>36.567666666666668</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" si="5"/>
-        <v>0.5571166666666667</v>
+        <v>33.427</v>
       </c>
       <c r="N22" s="16">
         <f t="shared" si="5"/>
-        <v>0.59218333333333328</v>
+        <v>35.530999999999999</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" si="5"/>
-        <v>0.55761666666666665</v>
+        <v>33.457000000000001</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="5"/>
-        <v>0.56897222222222221</v>
+        <v>34.138333333333335</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="5"/>
-        <v>0.70829999999999993</v>
+        <v>42.497999999999998</v>
       </c>
       <c r="R22" s="16">
         <f t="shared" si="5"/>
-        <v>0.71108333333333329</v>
+        <v>42.664999999999999</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" si="5"/>
-        <v>0.70794999999999997</v>
+        <v>42.476999999999997</v>
       </c>
       <c r="T22" s="16">
-        <f>T8/1000/60</f>
-        <v>0.70911111111111114</v>
+        <f t="shared" si="5"/>
+        <v>42.546666666666667</v>
       </c>
       <c r="U22" s="16">
-        <f t="shared" ref="U22:X22" si="6">U8/1000/60</f>
-        <v>0.69358333333333333</v>
+        <f t="shared" si="5"/>
+        <v>41.615000000000002</v>
       </c>
       <c r="V22" s="16">
-        <f t="shared" si="6"/>
-        <v>0.69231666666666669</v>
+        <f t="shared" si="5"/>
+        <v>41.539000000000001</v>
       </c>
       <c r="W22" s="16">
-        <f t="shared" si="6"/>
-        <v>0.64271666666666671</v>
+        <f t="shared" si="5"/>
+        <v>38.563000000000002</v>
       </c>
       <c r="X22" s="16">
-        <f t="shared" si="6"/>
-        <v>0.6762055555555555</v>
-      </c>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>40.572333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="13">
         <v>2</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" ref="E23:S26" si="7">E9/1000/60</f>
-        <v>0.86103333333333332</v>
+        <f t="shared" ref="E23:X23" si="6">E9/1000</f>
+        <v>51.661999999999999</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="7"/>
-        <v>0.80891666666666662</v>
+        <f t="shared" si="6"/>
+        <v>48.534999999999997</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="7"/>
-        <v>0.75906666666666667</v>
+        <f t="shared" si="6"/>
+        <v>45.543999999999997</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="7"/>
-        <v>0.80967222222222224</v>
+        <f t="shared" si="6"/>
+        <v>48.580333333333336</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0259500000000001</v>
+        <f t="shared" si="6"/>
+        <v>61.557000000000002</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0474666666666665</v>
+        <f t="shared" si="6"/>
+        <v>62.847999999999999</v>
       </c>
       <c r="K23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0442333333333333</v>
+        <f t="shared" si="6"/>
+        <v>62.654000000000003</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0392166666666667</v>
+        <f t="shared" si="6"/>
+        <v>62.353000000000002</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.45625</v>
+        <f t="shared" si="6"/>
+        <v>87.375</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0263666666666666</v>
+        <f t="shared" si="6"/>
+        <v>61.582000000000001</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="7"/>
-        <v>0.96298333333333341</v>
+        <f t="shared" si="6"/>
+        <v>57.779000000000003</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1485333333333334</v>
+        <f t="shared" si="6"/>
+        <v>68.912000000000006</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.16185</v>
+        <f t="shared" si="6"/>
+        <v>69.710999999999999</v>
       </c>
       <c r="R23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1457666666666666</v>
+        <f t="shared" si="6"/>
+        <v>68.745999999999995</v>
       </c>
       <c r="S23" s="16">
-        <f t="shared" si="7"/>
-        <v>1.07745</v>
+        <f t="shared" si="6"/>
+        <v>64.647000000000006</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" ref="T23:X23" si="8">T9/1000/60</f>
-        <v>1.1283555555555553</v>
+        <f t="shared" si="6"/>
+        <v>67.701333333333324</v>
       </c>
       <c r="U23" s="16">
-        <f t="shared" si="8"/>
-        <v>1.2974166666666667</v>
+        <f t="shared" si="6"/>
+        <v>77.844999999999999</v>
       </c>
       <c r="V23" s="16">
-        <f t="shared" si="8"/>
-        <v>1.1946666666666668</v>
+        <f t="shared" si="6"/>
+        <v>71.680000000000007</v>
       </c>
       <c r="W23" s="16">
-        <f t="shared" si="8"/>
-        <v>1.2261666666666666</v>
+        <f t="shared" si="6"/>
+        <v>73.569999999999993</v>
       </c>
       <c r="X23" s="16">
-        <f t="shared" si="8"/>
-        <v>1.2394166666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>74.364999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="13">
         <v>4</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="7"/>
-        <v>0.79475000000000007</v>
+        <f t="shared" ref="E24:X24" si="7">E10/1000</f>
+        <v>47.685000000000002</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="7"/>
-        <v>0.77611666666666668</v>
+        <v>46.567</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="7"/>
-        <v>0.77446666666666675</v>
+        <v>46.468000000000004</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="7"/>
-        <v>0.78177777777777779</v>
+        <v>46.906666666666666</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="7"/>
-        <v>0.97933333333333328</v>
+        <v>58.76</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="7"/>
-        <v>1.0293666666666668</v>
+        <v>61.762</v>
       </c>
       <c r="K24" s="16">
         <f t="shared" si="7"/>
-        <v>1.0119</v>
+        <v>60.713999999999999</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="7"/>
-        <v>1.0068666666666666</v>
+        <v>60.411999999999999</v>
       </c>
       <c r="M24" s="16">
         <f t="shared" si="7"/>
-        <v>1.4206666666666665</v>
+        <v>85.24</v>
       </c>
       <c r="N24" s="16">
         <f t="shared" si="7"/>
-        <v>1.0260833333333332</v>
+        <v>61.564999999999998</v>
       </c>
       <c r="O24" s="16">
         <f t="shared" si="7"/>
-        <v>0.94341666666666657</v>
+        <v>56.604999999999997</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="7"/>
-        <v>1.1300555555555554</v>
+        <v>67.803333333333327</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="7"/>
-        <v>1.1786333333333334</v>
+        <v>70.718000000000004</v>
       </c>
       <c r="R24" s="16">
         <f t="shared" si="7"/>
-        <v>1.1601999999999999</v>
+        <v>69.611999999999995</v>
       </c>
       <c r="S24" s="16">
         <f t="shared" si="7"/>
-        <v>1.2285166666666667</v>
+        <v>73.710999999999999</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" ref="T24:X24" si="9">T10/1000/60</f>
-        <v>1.1891166666666666</v>
+        <f t="shared" si="7"/>
+        <v>71.346999999999994</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="9"/>
-        <v>1.2450833333333333</v>
+        <f t="shared" si="7"/>
+        <v>74.704999999999998</v>
       </c>
       <c r="V24" s="16">
-        <f t="shared" si="9"/>
-        <v>1.2621</v>
+        <f t="shared" si="7"/>
+        <v>75.725999999999999</v>
       </c>
       <c r="W24" s="16">
-        <f t="shared" si="9"/>
-        <v>1.2295499999999999</v>
+        <f t="shared" si="7"/>
+        <v>73.772999999999996</v>
       </c>
       <c r="X24" s="16">
-        <f t="shared" si="9"/>
-        <v>1.2455777777777779</v>
-      </c>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>74.734666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="13">
         <v>8</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="7"/>
-        <v>0.81308333333333327</v>
+        <f t="shared" ref="E25:X25" si="8">E11/1000</f>
+        <v>48.784999999999997</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="7"/>
-        <v>0.79071666666666662</v>
+        <f t="shared" si="8"/>
+        <v>47.442999999999998</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="7"/>
-        <v>0.77285000000000004</v>
+        <f t="shared" si="8"/>
+        <v>46.371000000000002</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="7"/>
-        <v>0.79221666666666668</v>
+        <f t="shared" si="8"/>
+        <v>47.533000000000001</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0114333333333334</v>
+        <f t="shared" si="8"/>
+        <v>60.686</v>
       </c>
       <c r="J25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0086166666666667</v>
+        <f t="shared" si="8"/>
+        <v>60.517000000000003</v>
       </c>
       <c r="K25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0264333333333333</v>
+        <f t="shared" si="8"/>
+        <v>61.585999999999999</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0154944444444445</v>
+        <f t="shared" si="8"/>
+        <v>60.929666666666662</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0278</v>
+        <f t="shared" si="8"/>
+        <v>61.667999999999999</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0120166666666666</v>
+        <f t="shared" si="8"/>
+        <v>60.720999999999997</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0100166666666666</v>
+        <f t="shared" si="8"/>
+        <v>60.600999999999999</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0166111111111111</v>
+        <f t="shared" si="8"/>
+        <v>60.996666666666663</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.2643</v>
+        <f t="shared" si="8"/>
+        <v>75.858000000000004</v>
       </c>
       <c r="R25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.2966666666666666</v>
+        <f t="shared" si="8"/>
+        <v>77.8</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1771333333333334</v>
+        <f t="shared" si="8"/>
+        <v>70.628</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:X25" si="10">T11/1000/60</f>
-        <v>1.2460333333333333</v>
+        <f t="shared" si="8"/>
+        <v>74.762</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="10"/>
-        <v>1.2630666666666668</v>
+        <f t="shared" si="8"/>
+        <v>75.784000000000006</v>
       </c>
       <c r="V25" s="16">
-        <f t="shared" si="10"/>
-        <v>1.2788333333333335</v>
+        <f t="shared" si="8"/>
+        <v>76.73</v>
       </c>
       <c r="W25" s="16">
-        <f t="shared" si="10"/>
-        <v>1.2939499999999999</v>
+        <f t="shared" si="8"/>
+        <v>77.637</v>
       </c>
       <c r="X25" s="16">
-        <f t="shared" si="10"/>
-        <v>1.2786166666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>76.716999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="13">
         <v>16</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" si="7"/>
-        <v>0.82786666666666664</v>
+        <f t="shared" ref="E26:X26" si="9">E12/1000</f>
+        <v>49.671999999999997</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="7"/>
-        <v>0.79226666666666667</v>
+        <f t="shared" si="9"/>
+        <v>47.536000000000001</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="7"/>
-        <v>0.81056666666666666</v>
+        <f t="shared" si="9"/>
+        <v>48.634</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="7"/>
-        <v>0.81023333333333325</v>
+        <f t="shared" si="9"/>
+        <v>48.613999999999997</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1117333333333332</v>
+        <f t="shared" si="9"/>
+        <v>66.703999999999994</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1121000000000001</v>
+        <f t="shared" si="9"/>
+        <v>66.725999999999999</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0803166666666668</v>
+        <f t="shared" si="9"/>
+        <v>64.819000000000003</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1013833333333334</v>
+        <f t="shared" si="9"/>
+        <v>66.082999999999998</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0451666666666666</v>
+        <f t="shared" si="9"/>
+        <v>62.71</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0443</v>
+        <f t="shared" si="9"/>
+        <v>62.658000000000001</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0440166666666666</v>
+        <f t="shared" si="9"/>
+        <v>62.640999999999998</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.0444944444444444</v>
+        <f t="shared" si="9"/>
+        <v>62.669666666666664</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.2291166666666666</v>
+        <f t="shared" si="9"/>
+        <v>73.747</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.2626833333333332</v>
+        <f t="shared" si="9"/>
+        <v>75.760999999999996</v>
       </c>
       <c r="S26" s="16">
-        <f t="shared" si="7"/>
-        <v>1.2620499999999999</v>
+        <f t="shared" si="9"/>
+        <v>75.722999999999999</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" ref="T26:X26" si="11">T12/1000/60</f>
-        <v>1.2512833333333333</v>
+        <f t="shared" si="9"/>
+        <v>75.076999999999998</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="11"/>
-        <v>1.3298999999999999</v>
+        <f t="shared" si="9"/>
+        <v>79.793999999999997</v>
       </c>
       <c r="V26" s="16">
-        <f t="shared" si="11"/>
-        <v>1.3474666666666666</v>
+        <f t="shared" si="9"/>
+        <v>80.847999999999999</v>
       </c>
       <c r="W26" s="16">
-        <f t="shared" si="11"/>
-        <v>1.3458666666666665</v>
+        <f t="shared" si="9"/>
+        <v>80.751999999999995</v>
       </c>
       <c r="X26" s="16">
-        <f t="shared" si="11"/>
-        <v>1.3410777777777778</v>
+        <f t="shared" si="9"/>
+        <v>80.464666666666673</v>
+      </c>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="W28" s="10"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="Q20:T20"/>
     <mergeCell ref="U20:X20"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16304,10 +16372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="H28" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView topLeftCell="N23" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16346,41 +16414,41 @@
     </row>
     <row r="4" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="29" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="29" t="s">
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="33"/>
     </row>
     <row r="5" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="13" t="s">
@@ -17047,43 +17115,43 @@
     </row>
     <row r="27" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D27" s="14" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="29" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="29" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="29" t="s">
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="29" t="s">
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="31"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="33"/>
     </row>
     <row r="30" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D30" s="13" t="s">
@@ -17155,84 +17223,84 @@
         <v>1</v>
       </c>
       <c r="E31" s="16">
-        <f>E6/1000/60</f>
-        <v>1.80705</v>
+        <f>E6/1000</f>
+        <v>108.423</v>
       </c>
       <c r="F31" s="16">
-        <f t="shared" ref="F31:X31" si="0">F6/1000/60</f>
-        <v>1.4959666666666667</v>
+        <f t="shared" ref="F31:X31" si="0">F6/1000</f>
+        <v>89.757999999999996</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>1.3976666666666666</v>
+        <v>83.86</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
-        <v>1.5668944444444444</v>
+        <v>94.013666666666666</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="0"/>
-        <v>1.7618166666666668</v>
+        <v>105.709</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>1.8140333333333334</v>
+        <v>108.842</v>
       </c>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>1.7291833333333335</v>
+        <v>103.751</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
-        <v>1.7683444444444445</v>
+        <v>106.10066666666667</v>
       </c>
       <c r="M31" s="16">
         <f t="shared" si="0"/>
-        <v>1.7790333333333335</v>
+        <v>106.742</v>
       </c>
       <c r="N31" s="16">
         <f t="shared" si="0"/>
-        <v>1.6290499999999999</v>
+        <v>97.742999999999995</v>
       </c>
       <c r="O31" s="16">
         <f t="shared" si="0"/>
-        <v>1.5927666666666667</v>
+        <v>95.566000000000003</v>
       </c>
       <c r="P31" s="16">
         <f t="shared" si="0"/>
-        <v>1.6669499999999999</v>
+        <v>100.017</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="0"/>
-        <v>2.3828999999999998</v>
+        <v>142.97399999999999</v>
       </c>
       <c r="R31" s="16">
         <f t="shared" si="0"/>
-        <v>2.2468333333333335</v>
+        <v>134.81</v>
       </c>
       <c r="S31" s="16">
         <f t="shared" si="0"/>
-        <v>2.3296166666666664</v>
+        <v>139.77699999999999</v>
       </c>
       <c r="T31" s="16">
         <f t="shared" si="0"/>
-        <v>2.3197833333333335</v>
+        <v>139.18700000000001</v>
       </c>
       <c r="U31" s="16">
         <f t="shared" si="0"/>
-        <v>2.1650666666666667</v>
+        <v>129.904</v>
       </c>
       <c r="V31" s="16">
         <f t="shared" si="0"/>
-        <v>2.1791166666666668</v>
+        <v>130.74700000000001</v>
       </c>
       <c r="W31" s="16">
         <f t="shared" si="0"/>
-        <v>2.1298166666666667</v>
+        <v>127.789</v>
       </c>
       <c r="X31" s="16">
         <f t="shared" si="0"/>
-        <v>2.1579999999999999</v>
+        <v>129.47999999999999</v>
       </c>
     </row>
     <row r="32" spans="4:24" x14ac:dyDescent="0.2">
@@ -17240,353 +17308,381 @@
         <v>2</v>
       </c>
       <c r="E32" s="16">
-        <f t="shared" ref="E32:X32" si="1">E7/1000/60</f>
-        <v>2.1002000000000001</v>
+        <f t="shared" ref="E32:X32" si="1">E7/1000</f>
+        <v>126.012</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="1"/>
-        <v>1.6801166666666667</v>
+        <v>100.807</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="1"/>
-        <v>1.7113</v>
+        <v>102.678</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" si="1"/>
-        <v>1.8305388888888887</v>
+        <v>109.83233333333332</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="1"/>
-        <v>2.4480666666666666</v>
+        <v>146.88399999999999</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="1"/>
-        <v>2.4823999999999997</v>
+        <v>148.94399999999999</v>
       </c>
       <c r="K32" s="16">
         <f t="shared" si="1"/>
-        <v>2.3480666666666665</v>
+        <v>140.88399999999999</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="1"/>
-        <v>2.4261777777777778</v>
+        <v>145.57066666666665</v>
       </c>
       <c r="M32" s="16">
         <f t="shared" si="1"/>
-        <v>2.3309666666666669</v>
+        <v>139.858</v>
       </c>
       <c r="N32" s="16">
         <f t="shared" si="1"/>
-        <v>2.3003833333333334</v>
+        <v>138.023</v>
       </c>
       <c r="O32" s="16">
         <f t="shared" si="1"/>
-        <v>2.298283333333333</v>
+        <v>137.89699999999999</v>
       </c>
       <c r="P32" s="16">
         <f t="shared" si="1"/>
-        <v>2.3098777777777775</v>
+        <v>138.59266666666664</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="1"/>
-        <v>2.9990999999999999</v>
+        <v>179.946</v>
       </c>
       <c r="R32" s="16">
         <f t="shared" si="1"/>
-        <v>2.8822999999999999</v>
+        <v>172.93799999999999</v>
       </c>
       <c r="S32" s="16">
         <f t="shared" si="1"/>
-        <v>2.884466666666667</v>
+        <v>173.06800000000001</v>
       </c>
       <c r="T32" s="16">
         <f t="shared" si="1"/>
-        <v>2.9219555555555559</v>
+        <v>175.31733333333335</v>
       </c>
       <c r="U32" s="16">
         <f t="shared" si="1"/>
-        <v>3.1495500000000001</v>
+        <v>188.97300000000001</v>
       </c>
       <c r="V32" s="16">
         <f t="shared" si="1"/>
-        <v>3.1520666666666668</v>
+        <v>189.124</v>
       </c>
       <c r="W32" s="16">
         <f t="shared" si="1"/>
-        <v>3.1184666666666669</v>
+        <v>187.108</v>
       </c>
       <c r="X32" s="16">
         <f t="shared" si="1"/>
-        <v>3.1400277777777776</v>
-      </c>
-    </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
+        <v>188.40166666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D33" s="13">
         <v>4</v>
       </c>
       <c r="E33" s="16">
-        <f t="shared" ref="E33:X33" si="2">E8/1000/60</f>
-        <v>1.7606666666666666</v>
+        <f t="shared" ref="E33:X33" si="2">E8/1000</f>
+        <v>105.64</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="2"/>
-        <v>1.5275666666666665</v>
+        <v>91.653999999999996</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="2"/>
-        <v>1.5105</v>
+        <v>90.63</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" si="2"/>
-        <v>1.599577777777778</v>
+        <v>95.974666666666678</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1814999999999998</v>
+        <v>130.88999999999999</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1457666666666668</v>
+        <v>128.74600000000001</v>
       </c>
       <c r="K33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1956500000000001</v>
+        <v>131.739</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1743055555555553</v>
+        <v>130.45833333333331</v>
       </c>
       <c r="M33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1652666666666667</v>
+        <v>129.916</v>
       </c>
       <c r="N33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1820333333333335</v>
+        <v>130.922</v>
       </c>
       <c r="O33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1633333333333336</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="P33" s="16">
         <f t="shared" si="2"/>
-        <v>2.1702111111111111</v>
+        <v>130.21266666666668</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="2"/>
-        <v>2.7495166666666666</v>
+        <v>164.971</v>
       </c>
       <c r="R33" s="16">
         <f t="shared" si="2"/>
-        <v>2.7323333333333335</v>
+        <v>163.94</v>
       </c>
       <c r="S33" s="16">
         <f t="shared" si="2"/>
-        <v>2.7483166666666667</v>
+        <v>164.899</v>
       </c>
       <c r="T33" s="16">
         <f t="shared" si="2"/>
-        <v>2.7433888888888891</v>
+        <v>164.60333333333335</v>
       </c>
       <c r="U33" s="16">
         <f t="shared" si="2"/>
-        <v>2.7833833333333331</v>
+        <v>167.00299999999999</v>
       </c>
       <c r="V33" s="16">
         <f t="shared" si="2"/>
-        <v>2.8498666666666663</v>
+        <v>170.99199999999999</v>
       </c>
       <c r="W33" s="16">
         <f t="shared" si="2"/>
-        <v>2.9185666666666665</v>
+        <v>175.114</v>
       </c>
       <c r="X33" s="16">
         <f t="shared" si="2"/>
-        <v>2.8506055555555556</v>
-      </c>
-    </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.2">
+        <v>171.03633333333335</v>
+      </c>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D34" s="13">
         <v>8</v>
       </c>
       <c r="E34" s="16">
-        <f t="shared" ref="E34:X34" si="3">E9/1000/60</f>
-        <v>1.4962000000000002</v>
+        <f t="shared" ref="E34:X34" si="3">E9/1000</f>
+        <v>89.772000000000006</v>
       </c>
       <c r="F34" s="16">
         <f t="shared" si="3"/>
-        <v>1.5442</v>
+        <v>92.652000000000001</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="3"/>
-        <v>1.7297333333333333</v>
+        <v>103.78400000000001</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" si="3"/>
-        <v>1.5900444444444446</v>
+        <v>95.402666666666676</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="3"/>
-        <v>2.0510166666666669</v>
+        <v>123.06100000000001</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="3"/>
-        <v>2.1337166666666665</v>
+        <v>128.023</v>
       </c>
       <c r="K34" s="16">
         <f t="shared" si="3"/>
-        <v>2.4157999999999999</v>
+        <v>144.94800000000001</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="3"/>
-        <v>2.2001777777777773</v>
+        <v>132.01066666666665</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="3"/>
-        <v>2.0628333333333333</v>
+        <v>123.77</v>
       </c>
       <c r="N34" s="16">
         <f t="shared" si="3"/>
-        <v>2.4972833333333333</v>
+        <v>149.83699999999999</v>
       </c>
       <c r="O34" s="16">
         <f t="shared" si="3"/>
-        <v>2.0647166666666665</v>
+        <v>123.883</v>
       </c>
       <c r="P34" s="16">
         <f t="shared" si="3"/>
-        <v>2.208277777777778</v>
+        <v>132.49666666666667</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="3"/>
-        <v>2.5970999999999997</v>
+        <v>155.82599999999999</v>
       </c>
       <c r="R34" s="16">
         <f t="shared" si="3"/>
-        <v>2.6338166666666667</v>
+        <v>158.029</v>
       </c>
       <c r="S34" s="16">
         <f t="shared" si="3"/>
-        <v>2.6639333333333335</v>
+        <v>159.83600000000001</v>
       </c>
       <c r="T34" s="16">
         <f t="shared" si="3"/>
-        <v>2.6316166666666665</v>
+        <v>157.89699999999999</v>
       </c>
       <c r="U34" s="16">
         <f t="shared" si="3"/>
-        <v>2.9989333333333335</v>
+        <v>179.93600000000001</v>
       </c>
       <c r="V34" s="16">
         <f t="shared" si="3"/>
-        <v>2.7826666666666666</v>
+        <v>166.96</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="3"/>
-        <v>3.85555</v>
+        <v>231.333</v>
       </c>
       <c r="X34" s="16">
         <f t="shared" si="3"/>
-        <v>3.2123833333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.2">
+        <v>192.74299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D35" s="13">
         <v>16</v>
       </c>
       <c r="E35" s="16">
-        <f t="shared" ref="E35:X35" si="4">E10/1000/60</f>
-        <v>1.5170833333333333</v>
+        <f t="shared" ref="E35:X35" si="4">E10/1000</f>
+        <v>91.025000000000006</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="4"/>
-        <v>1.6113333333333335</v>
+        <v>96.68</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" si="4"/>
-        <v>1.5776666666666666</v>
+        <v>94.66</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" si="4"/>
-        <v>1.5686944444444444</v>
+        <v>94.12166666666667</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="4"/>
-        <v>2.5750833333333332</v>
+        <v>154.505</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="4"/>
-        <v>2.3740666666666663</v>
+        <v>142.44399999999999</v>
       </c>
       <c r="K35" s="16">
         <f t="shared" si="4"/>
-        <v>2.3105666666666664</v>
+        <v>138.63399999999999</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="4"/>
-        <v>2.4199055555555558</v>
+        <v>145.19433333333333</v>
       </c>
       <c r="M35" s="16">
         <f t="shared" si="4"/>
-        <v>2.3473333333333333</v>
+        <v>140.84</v>
       </c>
       <c r="N35" s="16">
         <f t="shared" si="4"/>
-        <v>2.1360999999999999</v>
+        <v>128.166</v>
       </c>
       <c r="O35" s="16">
         <f t="shared" si="4"/>
-        <v>2.1968999999999999</v>
+        <v>131.81399999999999</v>
       </c>
       <c r="P35" s="16">
         <f t="shared" si="4"/>
-        <v>2.2267777777777775</v>
+        <v>133.60666666666665</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="4"/>
-        <v>2.914733333333333</v>
+        <v>174.88399999999999</v>
       </c>
       <c r="R35" s="16">
         <f t="shared" si="4"/>
-        <v>3.1012833333333334</v>
+        <v>186.077</v>
       </c>
       <c r="S35" s="16">
         <f t="shared" si="4"/>
-        <v>2.8146666666666667</v>
+        <v>168.88</v>
       </c>
       <c r="T35" s="16">
         <f t="shared" si="4"/>
-        <v>2.9435611111111109</v>
+        <v>176.61366666666666</v>
       </c>
       <c r="U35" s="16">
         <f t="shared" si="4"/>
-        <v>2.9177666666666666</v>
+        <v>175.066</v>
       </c>
       <c r="V35" s="16">
         <f t="shared" si="4"/>
-        <v>3.0021333333333331</v>
+        <v>180.12799999999999</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="4"/>
-        <v>3.0514000000000001</v>
+        <v>183.084</v>
       </c>
       <c r="X35" s="16">
         <f t="shared" si="4"/>
-        <v>2.9904333333333333</v>
+        <v>179.42599999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="E36" s="30"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="Y38" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:X29"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17597,8 +17693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17642,50 +17738,50 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -17879,48 +17975,51 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
@@ -18128,20 +18227,24 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H25" s="10"/>
       <c r="J25" s="10"/>
       <c r="N25" s="10"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
@@ -18285,18 +18388,18 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
@@ -18518,7 +18621,10 @@
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
@@ -18758,13 +18864,25 @@
         <v>0.76982791666666672</v>
       </c>
     </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+    </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P63" s="10"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D64" s="21" t="s">
@@ -18907,7 +19025,7 @@
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
@@ -18915,22 +19033,22 @@
         <v>2</v>
       </c>
       <c r="E85" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G85" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="H85" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="I85" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="J85" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
@@ -19063,6 +19181,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="I56:L56"/>
     <mergeCell ref="M56:P56"/>
@@ -19071,14 +19197,6 @@
     <mergeCell ref="I46:L46"/>
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="D55:P55"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19100,27 +19218,27 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="41"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="2">
@@ -19129,7 +19247,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="2">
@@ -19137,11 +19255,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" s="35" t="s">
-        <v>41</v>
+      <c r="C7" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(F7:M7)</f>
@@ -19173,9 +19291,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(F8:M8)</f>
@@ -19208,22 +19326,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="C9" s="39"/>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>944434</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="35" t="s">
-        <v>42</v>
+      <c r="C10" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(F10:M10)</f>
@@ -19255,9 +19373,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="36"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(F11:M11)</f>
@@ -19289,9 +19407,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="37"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>876678</v>
@@ -19299,10 +19417,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>10638</v>
@@ -19314,11 +19432,11 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="35" t="s">
-        <v>79</v>
+      <c r="C15" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <f>E8+E11+E13</f>
@@ -19326,18 +19444,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="36"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
         <v>1948599</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C17" s="37"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <f>E15/E16</f>
@@ -19346,27 +19464,27 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C20" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="39"/>
+      <c r="C20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="41"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C22" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="2">
@@ -19375,7 +19493,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C23" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="2">
@@ -19383,11 +19501,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C24" s="35" t="s">
-        <v>41</v>
+      <c r="C24" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(F24:M24)</f>
@@ -19419,9 +19537,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="36"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2">
         <f>SUM(F25:M25)</f>
@@ -19453,20 +19571,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C26" s="37"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2">
         <v>962036</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C27" s="35" t="s">
-        <v>42</v>
+      <c r="C27" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2">
         <f>SUM(F27:M27)</f>
@@ -19498,9 +19616,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C28" s="36"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2">
         <f>SUM(F28:M28)</f>
@@ -19532,9 +19650,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C29" s="37"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2">
         <v>868239</v>
@@ -19542,10 +19660,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C30" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
         <v>10753</v>
@@ -19557,11 +19675,11 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C32" s="35" t="s">
-        <v>79</v>
+      <c r="C32" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2">
         <f>SUM(E25,E28,E30)</f>
@@ -19569,18 +19687,18 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C33" s="36"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2">
         <v>1948599</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C34" s="37"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
         <f>E32/E33</f>
@@ -19589,51 +19707,51 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
         <v>58</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
         <v>59</v>
       </c>
-      <c r="G38" t="s">
+      <c r="O38" t="s">
         <v>60</v>
       </c>
-      <c r="I38" t="s">
+      <c r="P38" t="s">
         <v>61</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s">
+        <v>46</v>
+      </c>
+      <c r="V38" t="s">
         <v>62</v>
       </c>
-      <c r="P38" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>45</v>
-      </c>
-      <c r="R38" t="s">
-        <v>46</v>
-      </c>
-      <c r="S38" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38" t="s">
-        <v>46</v>
-      </c>
-      <c r="U38" t="s">
-        <v>48</v>
-      </c>
-      <c r="V38" t="s">
-        <v>64</v>
-      </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O39">
         <v>19907</v>
@@ -19665,18 +19783,18 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C40" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="39"/>
+      <c r="C40" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="41"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="39"/>
+      <c r="G40" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="41"/>
       <c r="I40" s="2"/>
       <c r="N40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O40">
         <v>10701</v>
@@ -19708,16 +19826,16 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="2"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C42" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="2">
@@ -19725,7 +19843,7 @@
         <v>19907</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="2">
@@ -19733,36 +19851,36 @@
         <v>10701</v>
       </c>
       <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>66</v>
+      </c>
+      <c r="R42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" t="s">
+        <v>68</v>
+      </c>
+      <c r="T42" t="s">
+        <v>69</v>
+      </c>
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V42" t="s">
         <v>62</v>
       </c>
-      <c r="P42" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>68</v>
-      </c>
-      <c r="R42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S42" t="s">
-        <v>70</v>
-      </c>
-      <c r="T42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U42" t="s">
-        <v>48</v>
-      </c>
-      <c r="V42" t="s">
-        <v>64</v>
-      </c>
       <c r="W42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C43" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="2">
@@ -19770,7 +19888,7 @@
         <v>76374</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="2">
@@ -19778,7 +19896,7 @@
         <v>26578.5</v>
       </c>
       <c r="N43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O43">
         <f>O39/1000/60</f>
@@ -19818,28 +19936,28 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C44" s="35" t="s">
-        <v>41</v>
+      <c r="C44" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>166629.5</v>
       </c>
-      <c r="G44" s="35" t="s">
-        <v>41</v>
+      <c r="G44" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="1"/>
         <v>175316</v>
       </c>
       <c r="N44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O44">
         <f>O40/1000/60</f>
@@ -19879,17 +19997,17 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C45" s="36"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>727324.5</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="1"/>
@@ -19897,17 +20015,17 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C46" s="37"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>953235</v>
       </c>
-      <c r="G46" s="37"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="1"/>
@@ -19916,23 +20034,23 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>42</v>
+        <v>95</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>142405</v>
       </c>
-      <c r="G47" s="35" t="s">
-        <v>42</v>
+      <c r="G47" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="1"/>
@@ -19940,17 +20058,17 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C48" s="36"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>730049</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="1"/>
@@ -19958,17 +20076,17 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C49" s="37"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>872458.5</v>
       </c>
-      <c r="G49" s="37"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="1"/>
@@ -19977,20 +20095,20 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C50" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>10695.5</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="1"/>
@@ -20006,21 +20124,21 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C52" s="35" t="s">
-        <v>79</v>
+      <c r="C52" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2">
         <f>SUM(E45,E48,E50)</f>
         <v>1468069</v>
       </c>
-      <c r="G52" s="35" t="s">
-        <v>79</v>
+      <c r="G52" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I52" s="2">
         <f>SUM(I45,I48,I50)</f>
@@ -20028,33 +20146,33 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C53" s="36"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E53" s="2">
         <v>1948599</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I53" s="2">
         <v>1331220</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C54" s="37"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2">
         <f>E52/E53</f>
         <v>0.75339718433602809</v>
       </c>
-      <c r="G54" s="37"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I54" s="2">
         <f>I52/I53</f>
@@ -20063,27 +20181,27 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C59" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="39"/>
+      <c r="C59" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="41"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C61" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="2">
@@ -20092,7 +20210,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C62" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="2">
@@ -20100,11 +20218,11 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C63" s="35" t="s">
-        <v>41</v>
+      <c r="C63" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E63" s="2">
         <f>SUM(F63:U63)</f>
@@ -20160,9 +20278,9 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C64" s="36"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E64" s="2">
         <f>SUM(F64:U64)</f>
@@ -20218,20 +20336,20 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C65" s="37"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E65" s="2">
         <v>662682</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C66" s="35" t="s">
-        <v>42</v>
+      <c r="C66" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E66" s="2">
         <f>SUM(F66:U66)</f>
@@ -20288,11 +20406,11 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="36"/>
+        <v>96</v>
+      </c>
+      <c r="C67" s="38"/>
       <c r="D67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2">
         <f>SUM(F67:U67)</f>
@@ -20348,9 +20466,9 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C68" s="37"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2">
         <v>611484</v>
@@ -20358,10 +20476,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C69" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E69" s="2">
         <v>7216</v>
@@ -20373,11 +20491,11 @@
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C71" s="35" t="s">
-        <v>79</v>
+      <c r="C71" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E71" s="2">
         <f>E64+E67+E69</f>
@@ -20385,18 +20503,18 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C72" s="36"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E72" s="2">
         <v>1331220</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C73" s="37"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E73" s="2">
         <f>E71/E72</f>
@@ -20405,27 +20523,27 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C76" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="39"/>
+      <c r="C76" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="41"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C77" s="40"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C78" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="2">
@@ -20434,7 +20552,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C79" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="2">
@@ -20442,11 +20560,11 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C80" s="35" t="s">
-        <v>41</v>
+      <c r="C80" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E80" s="2">
         <f>SUM(F80:U80)</f>
@@ -20502,9 +20620,9 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C81" s="36"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E81" s="2">
         <f>SUM(F81:U81)</f>
@@ -20560,9 +20678,9 @@
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C82" s="37"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2">
         <v>660429</v>
@@ -20570,13 +20688,13 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E83" s="2">
         <f>SUM(F83:U83)</f>
@@ -20632,9 +20750,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C84" s="36"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E84" s="2">
         <f>SUM(F84:U84)</f>
@@ -20690,9 +20808,9 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C85" s="37"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E85" s="2">
         <v>614457</v>
@@ -20700,10 +20818,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C86" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E86" s="2">
         <v>3410</v>
@@ -20715,11 +20833,11 @@
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C88" s="35" t="s">
-        <v>79</v>
+      <c r="C88" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E88" s="2">
         <f>E81+E84+E86</f>
@@ -20727,18 +20845,18 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C89" s="36"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E89" s="2">
         <v>1331220</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C90" s="37"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E90" s="2">
         <f>E88/E89</f>
@@ -20747,6 +20865,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="G40:H41"/>
@@ -20760,17 +20889,6 @@
     <mergeCell ref="C76:D77"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20793,48 +20911,48 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="32"/>
+      <c r="B3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="35"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="35"/>
       <c r="D5" s="2">
         <v>24884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="32"/>
+      <c r="B6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="35"/>
       <c r="D6" s="2">
         <v>79714</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
-        <v>41</v>
+      <c r="B7" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(E7:L7)</f>
@@ -20866,9 +20984,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(E8:L8)</f>
@@ -20899,27 +21017,27 @@
         <v>109958</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="B9" s="44"/>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>1206851</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
-        <v>42</v>
+      <c r="B10" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(E10:L10)</f>
@@ -20951,9 +21069,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
         <f>SUM(E11:L11)</f>
@@ -20985,9 +21103,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
         <v>1025878</v>
@@ -20995,10 +21113,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>63667</v>
@@ -21012,7 +21130,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2">
         <f>D8+D11+D13</f>
@@ -21022,7 +21140,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2">
         <v>2431465</v>
@@ -21031,7 +21149,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
         <f>D15/D16</f>
@@ -21044,51 +21162,51 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="32"/>
+      <c r="B20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="35"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="32"/>
+      <c r="B22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="D22" s="2">
         <v>36848</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="35"/>
       <c r="D23" s="2">
         <v>74601</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="42" t="s">
-        <v>41</v>
+      <c r="B24" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2">
         <f>SUM(E24:L24)</f>
@@ -21120,9 +21238,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(E25:L25)</f>
@@ -21154,20 +21272,20 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2">
         <v>1152783</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="42" t="s">
-        <v>42</v>
+      <c r="B27" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2">
         <f>SUM(E27:L27)</f>
@@ -21199,9 +21317,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="42"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <f>SUM(E28:L28)</f>
@@ -21233,9 +21351,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2">
         <v>1131939</v>
@@ -21243,10 +21361,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
         <v>5045</v>
@@ -21260,7 +21378,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2">
         <f>SUM(D25,D28,D30)</f>
@@ -21270,7 +21388,7 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2">
         <v>2431465</v>
@@ -21279,7 +21397,7 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2">
         <f>D32/D33</f>
@@ -21288,69 +21406,69 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
       </c>
-      <c r="D36" t="s">
+      <c r="I36" t="s">
         <v>59</v>
       </c>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="39"/>
+      <c r="B37" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="41"/>
       <c r="D37" s="2"/>
-      <c r="G37" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="39"/>
+      <c r="G37" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="41"/>
       <c r="I37" s="2"/>
       <c r="M37" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" t="s">
+        <v>46</v>
+      </c>
+      <c r="T37" t="s">
         <v>62</v>
       </c>
-      <c r="N37" t="s">
-        <v>63</v>
-      </c>
-      <c r="O37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R37" t="s">
-        <v>46</v>
-      </c>
-      <c r="S37" t="s">
-        <v>48</v>
-      </c>
-      <c r="T37" t="s">
-        <v>64</v>
-      </c>
       <c r="U37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="2"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="2"/>
       <c r="L38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M38">
         <v>30866</v>
@@ -21382,16 +21500,16 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="32"/>
+      <c r="B39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="35"/>
       <c r="D39" s="2">
         <f t="shared" ref="D39:D47" si="0">AVERAGE(D22,D5)</f>
         <v>30866</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="2">
@@ -21399,7 +21517,7 @@
         <v>12665</v>
       </c>
       <c r="L39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M39">
         <v>12665</v>
@@ -21430,16 +21548,16 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="32"/>
+      <c r="B40" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="35"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>77157.5</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="2">
@@ -21448,73 +21566,73 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B41" s="42" t="s">
-        <v>41</v>
+      <c r="B41" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
         <v>197394.5</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>41</v>
+      <c r="G41" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="1"/>
         <v>149117.5</v>
       </c>
       <c r="M41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>68</v>
+      </c>
+      <c r="R41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S41" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" t="s">
         <v>62</v>
       </c>
-      <c r="N41" t="s">
-        <v>63</v>
-      </c>
-      <c r="O41" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>70</v>
-      </c>
-      <c r="R41" t="s">
-        <v>71</v>
-      </c>
-      <c r="S41" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41" t="s">
-        <v>64</v>
-      </c>
       <c r="U41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="42"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>925526</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="1"/>
         <v>558355</v>
       </c>
       <c r="L42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M42">
         <f>M38/1000/60</f>
@@ -21554,24 +21672,24 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B43" s="42"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>1179817</v>
       </c>
-      <c r="G43" s="37"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="1"/>
         <v>722682.5</v>
       </c>
       <c r="L43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M43">
         <f>M39/1000/60</f>
@@ -21611,21 +21729,21 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B44" s="42" t="s">
-        <v>42</v>
+      <c r="B44" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
         <v>160008.5</v>
       </c>
-      <c r="G44" s="35" t="s">
-        <v>42</v>
+      <c r="G44" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="1"/>
@@ -21633,17 +21751,17 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="42"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
         <v>918897</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="1"/>
@@ -21651,17 +21769,17 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B46" s="42"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
         <v>1078908.5</v>
       </c>
-      <c r="G46" s="37"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="1"/>
@@ -21670,20 +21788,20 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B47" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
         <v>34356</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="1"/>
@@ -21698,25 +21816,25 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="35" t="s">
-        <v>79</v>
+      <c r="B49" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2">
         <f>AVERAGE(D32,D15)</f>
         <v>1878779</v>
       </c>
-      <c r="G49" s="35" t="s">
-        <v>79</v>
+      <c r="G49" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I49" s="2">
         <f>AVERAGE(D86,D68)</f>
@@ -21724,16 +21842,16 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="36"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2">
         <v>2431465</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I50" s="2">
         <f>AVERAGE(D87,D69)</f>
@@ -21741,17 +21859,17 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="37"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2">
         <f>D49/D50</f>
         <v>0.77269423989241059</v>
       </c>
-      <c r="G51" s="37"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I51" s="2">
         <f>I49/I50</f>
@@ -21765,48 +21883,48 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="32"/>
+      <c r="B56" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="35"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="32"/>
+      <c r="B58" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="35"/>
       <c r="D58" s="2">
         <v>12941</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="32"/>
+      <c r="B59" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="35"/>
       <c r="D59" s="2">
         <v>23739</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="42" t="s">
-        <v>41</v>
+      <c r="B60" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2">
         <f>SUM(E60:T60)</f>
@@ -21862,9 +21980,9 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="42"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2">
         <f>SUM(E61:T61)</f>
@@ -21920,20 +22038,20 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2">
         <v>701966</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="42" t="s">
-        <v>42</v>
+      <c r="B63" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ref="D63:D64" si="4">SUM(E63:T63)</f>
@@ -21989,9 +22107,9 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="42"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="4"/>
@@ -22047,9 +22165,9 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="42"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2">
         <v>689534</v>
@@ -22057,10 +22175,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D66" s="2">
         <v>28418</v>
@@ -22074,7 +22192,7 @@
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D68" s="2">
         <f>D61+D64+D66</f>
@@ -22084,7 +22202,7 @@
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="2">
         <v>1472251</v>
@@ -22093,7 +22211,7 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D70" s="2">
         <f>D68/D69</f>
@@ -22102,48 +22220,48 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="32"/>
+      <c r="B74" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="35"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="32"/>
+      <c r="B76" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="35"/>
       <c r="D76" s="2">
         <v>12389</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="32"/>
+      <c r="B77" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="35"/>
       <c r="D77" s="2">
         <v>27078</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="42" t="s">
-        <v>41</v>
+      <c r="B78" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2">
         <f>SUM(E78:T78)</f>
@@ -22199,9 +22317,9 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="42"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2">
         <f>SUM(E79:T79)</f>
@@ -22258,22 +22376,22 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="B80" s="44"/>
       <c r="C80" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2">
         <v>743399</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B81" s="42" t="s">
-        <v>42</v>
+      <c r="B81" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2">
         <f>SUM(E81:T81)</f>
@@ -22329,9 +22447,9 @@
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B82" s="42"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2">
         <f>SUM(E82:T82)</f>
@@ -22387,9 +22505,9 @@
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B83" s="42"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2">
         <v>673664</v>
@@ -22397,10 +22515,10 @@
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D84" s="2">
         <v>17</v>
@@ -22414,7 +22532,7 @@
     <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D86" s="2">
         <f>D79+D82+D84</f>
@@ -22424,7 +22542,7 @@
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D87" s="2">
         <v>1472251</v>
@@ -22433,7 +22551,7 @@
     <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D88" s="2">
         <f>D86/D87</f>
@@ -22442,22 +22560,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
@@ -22472,6 +22574,22 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22480,187 +22598,784 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O9"/>
+  <dimension ref="C2:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" t="s">
-        <v>93</v>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>37508</v>
+      </c>
+      <c r="E4">
+        <v>195992</v>
+      </c>
+      <c r="F4">
+        <v>48689</v>
+      </c>
+      <c r="G4">
+        <v>265982</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>91767</v>
+      </c>
+      <c r="M4">
+        <v>805985</v>
+      </c>
+      <c r="N4">
+        <v>355056</v>
+      </c>
+      <c r="O4">
+        <v>1746013</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>37508</v>
+        <v>44442</v>
       </c>
       <c r="E5">
-        <v>195992</v>
+        <v>196042</v>
       </c>
       <c r="F5">
-        <v>48689</v>
+        <v>55477</v>
       </c>
       <c r="G5">
-        <v>265982</v>
+        <v>275982</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L5">
-        <v>91767</v>
+        <v>80703</v>
       </c>
       <c r="M5">
-        <v>805985</v>
+        <v>865956</v>
       </c>
       <c r="N5">
-        <v>355056</v>
+        <v>187405</v>
       </c>
       <c r="O5">
-        <v>1746013</v>
+        <v>1461103</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>44442</v>
+        <v>40592</v>
       </c>
       <c r="E6">
-        <v>196042</v>
+        <v>190941</v>
       </c>
       <c r="F6">
-        <v>55477</v>
+        <v>51646</v>
       </c>
       <c r="G6">
-        <v>275982</v>
+        <v>270970</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>80703</v>
+        <v>134455</v>
       </c>
       <c r="M6">
-        <v>865956</v>
+        <v>776073</v>
       </c>
       <c r="N6">
-        <v>187405</v>
+        <v>136158</v>
       </c>
       <c r="O6">
-        <v>1461103</v>
+        <v>1536026</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>40592</v>
+        <v>46749</v>
       </c>
       <c r="E7">
-        <v>190941</v>
+        <v>200955</v>
       </c>
       <c r="F7">
-        <v>51646</v>
+        <v>54537</v>
       </c>
       <c r="G7">
-        <v>270970</v>
+        <v>281032</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L7">
-        <v>134455</v>
+        <v>79187</v>
       </c>
       <c r="M7">
-        <v>776073</v>
+        <v>880999</v>
       </c>
       <c r="N7">
-        <v>136158</v>
+        <v>130959</v>
       </c>
       <c r="O7">
-        <v>1536026</v>
+        <v>1501104</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>38729</v>
+      </c>
+      <c r="E8">
+        <v>205949</v>
+      </c>
+      <c r="F8">
+        <v>48618</v>
+      </c>
+      <c r="G8">
+        <v>271042</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>D4/1000</f>
+        <v>37.508000000000003</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="0">E4/1000</f>
+        <v>195.99199999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>48.689</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>265.98200000000003</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f>L4/1000</f>
+        <v>91.766999999999996</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:O12" si="1">M4/1000</f>
+        <v>805.98500000000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>355.05599999999998</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1746.0129999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="2">D5/1000</f>
+        <v>44.442</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>196.042</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>55.476999999999997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>275.98200000000003</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:O15" si="3">L5/1000</f>
+        <v>80.703000000000003</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>865.95600000000002</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>187.405</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>1461.1030000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:G14" si="4">D6/1000</f>
+        <v>40.591999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>190.941</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>51.646000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>270.97000000000003</v>
+      </c>
+      <c r="K14">
         <v>60</v>
       </c>
-      <c r="D8">
-        <v>46749</v>
-      </c>
-      <c r="E8">
-        <v>200955</v>
-      </c>
-      <c r="F8">
-        <v>54537</v>
-      </c>
-      <c r="G8">
-        <v>281032</v>
-      </c>
-      <c r="K8">
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>134.45500000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>776.07299999999998</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>136.15799999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>1536.0260000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="5">D7/1000</f>
+        <v>46.749000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>200.95500000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>54.536999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>281.03199999999998</v>
+      </c>
+      <c r="K15">
         <v>80</v>
       </c>
-      <c r="L8">
-        <v>79187</v>
-      </c>
-      <c r="M8">
-        <v>880999</v>
-      </c>
-      <c r="N8">
-        <v>130959</v>
-      </c>
-      <c r="O8">
-        <v>1501104</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C9">
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>79.186999999999998</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>880.99900000000002</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>130.959</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>1501.104</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16">
         <v>80</v>
       </c>
-      <c r="D9">
-        <v>38729</v>
-      </c>
-      <c r="E9">
-        <v>205949</v>
-      </c>
-      <c r="F9">
-        <v>48618</v>
-      </c>
-      <c r="G9">
-        <v>271042</v>
+      <c r="D16">
+        <f t="shared" ref="D16:G16" si="6">D8/1000</f>
+        <v>38.728999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>205.94900000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>48.618000000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>271.04199999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>41652230</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1202513046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E7" s="2"/>
+      <c r="F7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11281943</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>17020455</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5594088</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>8304107</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <f>F11/1000/60/60</f>
+        <v>3.1338730555555552</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <f t="shared" ref="G23:J24" si="0">J11/1000/60/60</f>
+        <v>4.7279041666666668</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2">
+        <f>F12/1000/60/60</f>
+        <v>1.5539133333333333</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3066963888888887</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/analysis/experiments-on-juliet-201703.xlsx
+++ b/experiments/analysis/experiments-on-juliet-201703.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="web-google" sheetId="3" r:id="rId1"/>
@@ -626,13 +626,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,7 +713,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1196,11 +1195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121010912"/>
-        <c:axId val="-2121003040"/>
+        <c:axId val="-2118677136"/>
+        <c:axId val="-2118674288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121010912"/>
+        <c:axId val="-2118677136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1228,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1290,7 +1288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121003040"/>
+        <c:crossAx val="-2118674288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121003040"/>
+        <c:axId val="-2118674288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1339,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1396,7 +1393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121010912"/>
+        <c:crossAx val="-2118677136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,7 +1407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1527,7 +1523,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1865,11 +1860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2117612848"/>
-        <c:axId val="2117619232"/>
+        <c:axId val="2122191360"/>
+        <c:axId val="2122197744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117612848"/>
+        <c:axId val="2122191360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1976,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117619232"/>
+        <c:crossAx val="2122197744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1984,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117619232"/>
+        <c:axId val="2122197744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2038,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2099,7 +2092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117612848"/>
+        <c:crossAx val="2122191360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2113,7 +2106,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2226,7 +2218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2540,11 +2531,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2117671984"/>
-        <c:axId val="2117678368"/>
+        <c:axId val="2122117088"/>
+        <c:axId val="2122123472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117671984"/>
+        <c:axId val="2122117088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2651,7 +2641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117678368"/>
+        <c:crossAx val="2122123472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117678368"/>
+        <c:axId val="2122123472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2709,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2774,7 +2763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117671984"/>
+        <c:crossAx val="2122117088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2788,7 +2777,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,11 +3354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2116006960"/>
-        <c:axId val="-2116012800"/>
+        <c:axId val="-2092073952"/>
+        <c:axId val="-2092068192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2116006960"/>
+        <c:axId val="-2092073952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116012800"/>
+        <c:crossAx val="-2092068192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3467,7 +3455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116012800"/>
+        <c:axId val="-2092068192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -3566,7 +3554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116006960"/>
+        <c:crossAx val="-2092073952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50.0"/>
@@ -3934,11 +3922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2117500496"/>
-        <c:axId val="2117506960"/>
+        <c:axId val="-2092019408"/>
+        <c:axId val="-2092012928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117500496"/>
+        <c:axId val="-2092019408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +4033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117506960"/>
+        <c:crossAx val="-2092012928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4053,7 +4041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117506960"/>
+        <c:axId val="-2092012928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117500496"/>
+        <c:crossAx val="-2092019408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4724,11 +4712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120850160"/>
-        <c:axId val="-2120844464"/>
+        <c:axId val="-2118511248"/>
+        <c:axId val="-2118505552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120850160"/>
+        <c:axId val="-2118511248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,7 +4810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120844464"/>
+        <c:crossAx val="-2118505552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4830,7 +4818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120844464"/>
+        <c:axId val="-2118505552"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4929,7 +4917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120850160"/>
+        <c:crossAx val="-2118511248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5532,11 +5520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120780880"/>
-        <c:axId val="-2120774896"/>
+        <c:axId val="-2118414896"/>
+        <c:axId val="-2118408912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120780880"/>
+        <c:axId val="-2118414896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5625,7 +5613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120774896"/>
+        <c:crossAx val="-2118408912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5633,7 +5621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120774896"/>
+        <c:axId val="-2118408912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5730,7 +5718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120780880"/>
+        <c:crossAx val="-2118414896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5843,6 +5831,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6090,11 +6079,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2122120064"/>
-        <c:axId val="-2122116608"/>
+        <c:axId val="-2095224192"/>
+        <c:axId val="-2095220448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122120064"/>
+        <c:axId val="-2095224192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,7 +6123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122116608"/>
+        <c:crossAx val="-2095220448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6142,7 +6131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122116608"/>
+        <c:axId val="-2095220448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6190,7 +6179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122120064"/>
+        <c:crossAx val="-2095224192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6204,6 +6193,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6862,11 +6852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117563104"/>
-        <c:axId val="2117566128"/>
+        <c:axId val="-2092928048"/>
+        <c:axId val="-2092931232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117563104"/>
+        <c:axId val="-2092928048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6906,7 +6896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117566128"/>
+        <c:crossAx val="-2092931232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6914,7 +6904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117566128"/>
+        <c:axId val="-2092931232"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6963,7 +6953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117563104"/>
+        <c:crossAx val="-2092928048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7574,11 +7564,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2120672352"/>
-        <c:axId val="-2120666048"/>
+        <c:axId val="-2092952096"/>
+        <c:axId val="2122114992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2120672352"/>
+        <c:axId val="-2092952096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7672,7 +7662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120666048"/>
+        <c:crossAx val="2122114992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7680,7 +7670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120666048"/>
+        <c:axId val="2122114992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7782,7 +7772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120672352"/>
+        <c:crossAx val="-2092952096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7912,6 +7902,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8394,11 +8385,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2121988208"/>
-        <c:axId val="-2121981808"/>
+        <c:axId val="-2118277136"/>
+        <c:axId val="-2118270736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121988208"/>
+        <c:axId val="-2118277136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8444,6 +8435,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8504,7 +8496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121981808"/>
+        <c:crossAx val="-2118270736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8512,7 +8504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121981808"/>
+        <c:axId val="-2118270736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8572,6 +8564,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8626,7 +8619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121988208"/>
+        <c:crossAx val="-2118277136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8640,6 +8633,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16354,16 +16348,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:X20"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:X20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17673,16 +17667,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="Q29:T29"/>
     <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17693,7 +17687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -17746,42 +17740,42 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -17982,44 +17976,44 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
@@ -18403,42 +18397,42 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D46" s="22"/>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34" t="s">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34" t="s">
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
@@ -18628,42 +18622,42 @@
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D56" s="22"/>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34" t="s">
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34" t="s">
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D57" s="22" t="s">
@@ -19181,6 +19175,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="D45:P45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="D55:P55"/>
     <mergeCell ref="D5:P5"/>
     <mergeCell ref="D17:P17"/>
     <mergeCell ref="E18:H18"/>
@@ -19189,14 +19191,6 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="D45:P45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="D55:P55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20865,17 +20859,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="G40:H41"/>
@@ -20889,6 +20872,17 @@
     <mergeCell ref="C76:D77"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20899,8 +20893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U88"/>
   <sheetViews>
-    <sheetView topLeftCell="H36" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20918,31 +20912,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2">
         <v>24884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="2">
         <v>79714</v>
       </c>
@@ -21169,22 +21163,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2">
         <v>36848</v>
       </c>
@@ -21193,10 +21187,10 @@
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="2">
         <v>74601</v>
       </c>
@@ -21500,10 +21494,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="2">
         <f t="shared" ref="D39:D47" si="0">AVERAGE(D22,D5)</f>
         <v>30866</v>
@@ -21548,10 +21542,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>77157.5</v>
@@ -21890,31 +21884,31 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="35"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="2">
         <v>12941</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="2">
         <v>23739</v>
       </c>
@@ -22227,31 +22221,31 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="35"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="2">
         <v>12389</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="35"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="2">
         <v>27078</v>
       </c>
@@ -22560,6 +22554,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
@@ -22574,22 +22584,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23004,7 +22998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -23042,42 +23036,42 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
@@ -23207,42 +23201,42 @@
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
@@ -23331,7 +23325,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <f t="shared" ref="G23:J24" si="0">J11/1000/60/60</f>
+        <f t="shared" ref="J23:J24" si="0">J11/1000/60/60</f>
         <v>4.7279041666666668</v>
       </c>
       <c r="K23" s="2"/>
@@ -23367,14 +23361,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="E6:Q6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiments/analysis/experiments-on-juliet-201703.xlsx
+++ b/experiments/analysis/experiments-on-juliet-201703.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="web-google" sheetId="3" r:id="rId1"/>
@@ -626,13 +626,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1195,11 +1195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118677136"/>
-        <c:axId val="-2118674288"/>
+        <c:axId val="-2095328432"/>
+        <c:axId val="-2095000672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118677136"/>
+        <c:axId val="-2095328432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118674288"/>
+        <c:crossAx val="-2095000672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118674288"/>
+        <c:axId val="-2095000672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118677136"/>
+        <c:crossAx val="-2095328432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,11 +1860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2122191360"/>
-        <c:axId val="2122197744"/>
+        <c:axId val="-2032210752"/>
+        <c:axId val="-2032204368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122191360"/>
+        <c:axId val="-2032210752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122197744"/>
+        <c:crossAx val="-2032204368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1978,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122197744"/>
+        <c:axId val="-2032204368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122191360"/>
+        <c:crossAx val="-2032210752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2531,11 +2531,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2122117088"/>
-        <c:axId val="2122123472"/>
+        <c:axId val="-2029788032"/>
+        <c:axId val="-2029781648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122117088"/>
+        <c:axId val="-2029788032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122123472"/>
+        <c:crossAx val="-2029781648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,7 +2649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122123472"/>
+        <c:axId val="-2029781648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122117088"/>
+        <c:crossAx val="-2029788032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3354,11 +3354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2092073952"/>
-        <c:axId val="-2092068192"/>
+        <c:axId val="-2032772240"/>
+        <c:axId val="-2032766480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092073952"/>
+        <c:axId val="-2032772240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092068192"/>
+        <c:crossAx val="-2032766480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3455,7 +3455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092068192"/>
+        <c:axId val="-2032766480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -3554,7 +3554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092073952"/>
+        <c:crossAx val="-2032772240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50.0"/>
@@ -3922,11 +3922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2092019408"/>
-        <c:axId val="-2092012928"/>
+        <c:axId val="-2029692160"/>
+        <c:axId val="-2029685696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092019408"/>
+        <c:axId val="-2029692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092012928"/>
+        <c:crossAx val="-2029685696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4041,7 +4041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092012928"/>
+        <c:axId val="-2029685696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,7 +4148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092019408"/>
+        <c:crossAx val="-2029692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4712,11 +4712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118511248"/>
-        <c:axId val="-2118505552"/>
+        <c:axId val="-2029823952"/>
+        <c:axId val="-2029827344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118511248"/>
+        <c:axId val="-2029823952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4810,7 +4810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118505552"/>
+        <c:crossAx val="-2029827344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4818,7 +4818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118505552"/>
+        <c:axId val="-2029827344"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4917,7 +4917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118511248"/>
+        <c:crossAx val="-2029823952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5520,11 +5520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118414896"/>
-        <c:axId val="-2118408912"/>
+        <c:axId val="2122079440"/>
+        <c:axId val="2122133408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118414896"/>
+        <c:axId val="2122079440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5613,7 +5613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118408912"/>
+        <c:crossAx val="2122133408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5621,7 +5621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118408912"/>
+        <c:axId val="2122133408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118414896"/>
+        <c:crossAx val="2122079440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5831,7 +5831,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6079,11 +6078,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2095224192"/>
-        <c:axId val="-2095220448"/>
+        <c:axId val="-2059093072"/>
+        <c:axId val="-2122052208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095224192"/>
+        <c:axId val="-2059093072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6123,7 +6122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095220448"/>
+        <c:crossAx val="-2122052208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6131,7 +6130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095220448"/>
+        <c:axId val="-2122052208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095224192"/>
+        <c:crossAx val="-2059093072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6193,7 +6192,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6852,11 +6850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2092928048"/>
-        <c:axId val="-2092931232"/>
+        <c:axId val="2122145808"/>
+        <c:axId val="2122150768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092928048"/>
+        <c:axId val="2122145808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6896,7 +6894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092931232"/>
+        <c:crossAx val="2122150768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6904,7 +6902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092931232"/>
+        <c:axId val="2122150768"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6953,7 +6951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092928048"/>
+        <c:crossAx val="2122145808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7066,6 +7064,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7564,11 +7563,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2092952096"/>
-        <c:axId val="2122114992"/>
+        <c:axId val="-2077035408"/>
+        <c:axId val="2122292208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092952096"/>
+        <c:axId val="-2077035408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7602,6 +7601,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7662,7 +7662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122114992"/>
+        <c:crossAx val="2122292208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7670,7 +7670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122114992"/>
+        <c:axId val="2122292208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7718,6 +7718,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7772,7 +7773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092952096"/>
+        <c:crossAx val="-2077035408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7786,6 +7787,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8385,11 +8387,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2118277136"/>
-        <c:axId val="-2118270736"/>
+        <c:axId val="-2033096624"/>
+        <c:axId val="-2033045040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118277136"/>
+        <c:axId val="-2033096624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8496,7 +8498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118270736"/>
+        <c:crossAx val="-2033045040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8504,7 +8506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118270736"/>
+        <c:axId val="-2033045040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8619,7 +8621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118277136"/>
+        <c:crossAx val="-2033096624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16348,16 +16350,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="Q20:T20"/>
     <mergeCell ref="U20:X20"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17667,16 +17669,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:X29"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17687,7 +17689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -17740,42 +17742,42 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -17976,44 +17978,44 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
@@ -18397,42 +18399,42 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D46" s="22"/>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36" t="s">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
@@ -18622,42 +18624,42 @@
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D56" s="22"/>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36" t="s">
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36" t="s">
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D57" s="22" t="s">
@@ -19175,6 +19177,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="I56:L56"/>
     <mergeCell ref="M56:P56"/>
@@ -19183,14 +19193,6 @@
     <mergeCell ref="I46:L46"/>
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="D55:P55"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19201,8 +19203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W90"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="118" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20859,6 +20861,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="G40:H41"/>
@@ -20872,17 +20885,6 @@
     <mergeCell ref="C76:D77"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20893,7 +20895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="I24" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -20912,31 +20914,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="2">
         <v>24884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="2">
         <v>79714</v>
       </c>
@@ -21163,22 +21165,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="2">
         <v>36848</v>
       </c>
@@ -21187,10 +21189,10 @@
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="2">
         <v>74601</v>
       </c>
@@ -21494,10 +21496,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="2">
         <f t="shared" ref="D39:D47" si="0">AVERAGE(D22,D5)</f>
         <v>30866</v>
@@ -21542,10 +21544,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>77157.5</v>
@@ -21884,31 +21886,31 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="34"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="2">
         <v>12941</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="2">
         <v>23739</v>
       </c>
@@ -22221,31 +22223,31 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="2">
         <v>12389</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="2">
         <v>27078</v>
       </c>
@@ -22554,22 +22556,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
@@ -22584,6 +22570,22 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23036,42 +23038,42 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
@@ -23201,42 +23203,42 @@
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34" t="s">
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">

--- a/experiments/analysis/experiments-on-juliet-201703.xlsx
+++ b/experiments/analysis/experiments-on-juliet-201703.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="web-google" sheetId="3" r:id="rId1"/>
     <sheet name="miami" sheetId="2" r:id="rId2"/>
-    <sheet name="nyc" sheetId="1" r:id="rId3"/>
-    <sheet name="nyc-u-d-breakdown" sheetId="6" r:id="rId4"/>
-    <sheet name="nyc-u-e-breakdown" sheetId="4" r:id="rId5"/>
-    <sheet name="redraw" sheetId="5" r:id="rId6"/>
-    <sheet name="twitter" sheetId="7" r:id="rId7"/>
+    <sheet name="miami-u-cl" sheetId="8" r:id="rId3"/>
+    <sheet name="nyc" sheetId="1" r:id="rId4"/>
+    <sheet name="nyc-u-d-breakdown" sheetId="6" r:id="rId5"/>
+    <sheet name="nyc-u-e-breakdown" sheetId="4" r:id="rId6"/>
+    <sheet name="redraw" sheetId="5" r:id="rId7"/>
+    <sheet name="twitter" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="129">
   <si>
     <t>u3-1</t>
   </si>
@@ -352,6 +353,72 @@
   <si>
     <t>pause here</t>
   </si>
+  <si>
+    <t>6704744ms</t>
+  </si>
+  <si>
+    <t>4104477ms</t>
+  </si>
+  <si>
+    <t>2302536ms</t>
+  </si>
+  <si>
+    <t>8633812ms</t>
+  </si>
+  <si>
+    <t>4485309ms</t>
+  </si>
+  <si>
+    <t>3259970ms</t>
+  </si>
+  <si>
+    <t>results recorded in nyc-u-e.u5-2.u5-3.40threads.20170316.log</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>miami-u-cl0</t>
+  </si>
+  <si>
+    <t>miami-u-cl1</t>
+  </si>
+  <si>
+    <t>maimi-u-cl2</t>
+  </si>
+  <si>
+    <t>miami-u-cl3</t>
+  </si>
+  <si>
+    <t>miami-u-cl4</t>
+  </si>
+  <si>
+    <t>U5-1.t template</t>
+  </si>
+  <si>
+    <t>cl0</t>
+  </si>
+  <si>
+    <t>cl1</t>
+  </si>
+  <si>
+    <t>cl2</t>
+  </si>
+  <si>
+    <t>cl4</t>
+  </si>
+  <si>
+    <t>cl3</t>
+  </si>
+  <si>
+    <t>unit: ms</t>
+  </si>
+  <si>
+    <t>139890ms</t>
+  </si>
+  <si>
+    <t>on miami-u-cl.4nodes.40threads.20170316.log and miami-u-cl.4nodes.40threads.20170316-2.log</t>
+  </si>
 </sst>
 </file>
 
@@ -626,13 +693,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1195,11 +1262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2095328432"/>
-        <c:axId val="-2095000672"/>
+        <c:axId val="-2012680992"/>
+        <c:axId val="-2101293456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095328432"/>
+        <c:axId val="-2012680992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095000672"/>
+        <c:crossAx val="-2101293456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095000672"/>
+        <c:axId val="-2101293456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095328432"/>
+        <c:crossAx val="-2012680992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,7 +1572,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Performance</a:t>
+              <a:t>Execution </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0">
@@ -1513,7 +1580,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> comparison on the Web-google dataset</a:t>
+              <a:t>time break-down</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
@@ -1553,19 +1620,186 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$D$11</c:f>
+              <c:f>'nyc-u-e-breakdown'!$M$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HarpSahad-u5-1</c:v>
+                  <c:v>read graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-e-breakdown'!$M$42:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.514433333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.211083333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>color graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-e-breakdown'!$N$42:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.285958333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.423466666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$O$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compute1 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-e-breakdown'!$O$42:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.289908333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.485291666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$P$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rotate1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1581,139 +1815,45 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>8-node</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$D$12:$D$16</c:f>
+              <c:f>'nyc-u-e-breakdown'!$P$42:$P$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.508</c:v>
+                  <c:v>15.42543333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.749</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.729</c:v>
+                  <c:v>9.305916666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$E$11</c:f>
+              <c:f>'nyc-u-e-breakdown'!$Q$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sahad-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>redraw!$E$12:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>195.992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>196.042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190.941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200.955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205.949</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>redraw!$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HarpSahad-u7-2</c:v>
+                  <c:v>compute2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1729,64 +1869,99 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>8-node</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$F$12:$F$16</c:f>
+              <c:f>'nyc-u-e-breakdown'!$Q$42:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48.689</c:v>
+                  <c:v>2.666808333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.477</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.646</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.537</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.618</c:v>
+                  <c:v>2.135025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$G$11</c:f>
+              <c:f>'nyc-u-e-breakdown'!$R$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sahad-u7-1</c:v>
+                  <c:v>rotate2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-e-breakdown'!$R$42:$R$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.31495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.22485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$S$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>allreduce</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,49 +1977,86 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>8-node</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$G$12:$G$16</c:f>
+              <c:f>'nyc-u-e-breakdown'!$S$42:$S$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>265.982</c:v>
+                  <c:v>0.5726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275.982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>270.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>281.032</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>271.042</c:v>
+                  <c:v>0.236958333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$T$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-e-breakdown'!$T$42:$T$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.454325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.514925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,22 +2070,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2032210752"/>
-        <c:axId val="-2032204368"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2035932976"/>
+        <c:axId val="-2017141824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2032210752"/>
+        <c:axId val="-2035932976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1892,7 +2104,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number</a:t>
+                  <a:t>Nuber</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0">
@@ -1900,7 +2112,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> of Threads</a:t>
+                  <a:t> of nodes</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -1919,7 +2131,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1970,7 +2182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032204368"/>
+        <c:crossAx val="-2017141824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1978,12 +2190,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2032204368"/>
+        <c:axId val="-2017141824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2001,7 +2213,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2020,7 +2232,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Execution</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0">
@@ -2028,7 +2240,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> time (second)</a:t>
+                  <a:t> (mins)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -2047,7 +2259,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2092,7 +2304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032210752"/>
+        <c:crossAx val="-2035932976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,7 +2420,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> comparison on the Miami dataset</a:t>
+              <a:t> comparison on the Web-google dataset</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
@@ -2256,7 +2468,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$L$11</c:f>
+              <c:f>redraw!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2277,20 +2489,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2298,21 +2513,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$L$12:$L$15</c:f>
+              <c:f>redraw!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.767</c:v>
+                  <c:v>37.508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.703</c:v>
+                  <c:v>44.442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.455</c:v>
+                  <c:v>40.592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.187</c:v>
+                  <c:v>46.749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,7 +2541,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$M$11</c:f>
+              <c:f>redraw!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2346,20 +2564,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2367,21 +2588,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$M$12:$M$15</c:f>
+              <c:f>redraw!$E$12:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>805.985</c:v>
+                  <c:v>195.992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>865.956</c:v>
+                  <c:v>196.042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>776.073</c:v>
+                  <c:v>190.941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>880.999</c:v>
+                  <c:v>200.955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,7 +2616,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$N$11</c:f>
+              <c:f>redraw!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2413,20 +2637,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2434,21 +2661,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$N$12:$N$15</c:f>
+              <c:f>redraw!$F$12:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>355.056</c:v>
+                  <c:v>48.689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.405</c:v>
+                  <c:v>55.477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136.158</c:v>
+                  <c:v>51.646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.959</c:v>
+                  <c:v>54.537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2689,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$O$11</c:f>
+              <c:f>redraw!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2480,20 +2710,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2501,21 +2734,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$O$12:$O$15</c:f>
+              <c:f>redraw!$G$12:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1746.013</c:v>
+                  <c:v>265.982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1461.103</c:v>
+                  <c:v>275.982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1536.026</c:v>
+                  <c:v>270.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1501.104</c:v>
+                  <c:v>281.032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,11 +2767,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2029788032"/>
-        <c:axId val="-2029781648"/>
+        <c:axId val="-2008500064"/>
+        <c:axId val="-2012134688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029788032"/>
+        <c:axId val="-2008500064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029781648"/>
+        <c:crossAx val="-2012134688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,7 +2885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029781648"/>
+        <c:axId val="-2012134688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2999,678 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029788032"/>
+        <c:crossAx val="-2008500064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> comparison on the Miami dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HarpSahad-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91.767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sahad-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$M$12:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>805.985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>865.956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>776.073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HarpSahad-u7-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$N$12:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>355.056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sahad-u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1746.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1461.103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536.026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1501.104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2131567792"/>
+        <c:axId val="2129252768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2131567792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129252768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2129252768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> time (second)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131567792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3354,11 +4261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2032772240"/>
-        <c:axId val="-2032766480"/>
+        <c:axId val="-2012929440"/>
+        <c:axId val="-2101111312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2032772240"/>
+        <c:axId val="-2012929440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +4354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032766480"/>
+        <c:crossAx val="-2101111312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3455,7 +4362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2032766480"/>
+        <c:axId val="-2101111312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -3554,7 +4461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032772240"/>
+        <c:crossAx val="-2012929440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50.0"/>
@@ -3653,6 +4560,478 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance comparison on miami</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> dataset with u5-1 template on 4 nodes (40 threads per node)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('miami-u-cl'!$H$22,'miami-u-cl'!$L$22,'miami-u-cl'!$P$22,'miami-u-cl'!$T$22,'miami-u-cl'!$X$22)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>cl0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cl1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cl2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cl3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cl4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('miami-u-cl'!$H$25,'miami-u-cl'!$L$25,'miami-u-cl'!$P$25,'miami-u-cl'!$T$25,'miami-u-cl'!$X$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>138.5946666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.6306666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.3593333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2035171248"/>
+        <c:axId val="-2034983008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2035171248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunglu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> datasets</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2034983008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2034983008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2035171248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -3673,7 +5052,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3922,11 +5300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2029692160"/>
-        <c:axId val="-2029685696"/>
+        <c:axId val="-2039299712"/>
+        <c:axId val="-2044895616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029692160"/>
+        <c:axId val="-2039299712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +5350,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4033,7 +5410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029685696"/>
+        <c:crossAx val="-2044895616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4041,7 +5418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029685696"/>
+        <c:axId val="-2044895616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +5470,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4148,7 +5524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029692160"/>
+        <c:crossAx val="-2039299712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4162,7 +5538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4221,7 +5596,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4258,7 +5633,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4712,11 +6086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2029823952"/>
-        <c:axId val="-2029827344"/>
+        <c:axId val="-2031172816"/>
+        <c:axId val="-2039518240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2029823952"/>
+        <c:axId val="-2031172816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,810 +6119,6 @@
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Number of Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2029827344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2029827344"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2029823952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Performance comparison between even-partition and degree2-partition on nyc dataset</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$E$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>even-u3-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$E$86:$E$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.921112222222222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.323881944444444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.425416388888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$F$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>even-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$F$86:$F$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>1.929355555555556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.012693472222222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.634970138888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$G$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>even-u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$G$86:$G$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>2.643145833333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.382870972222222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.881812638888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$H$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>degree2-u3-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$H$86:$H$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.826007916666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.056425833333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56812875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.364936805555556</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$I$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>degree2-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$I$86:$I$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>1.521579027777778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.799164166666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5387025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$J$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>degree2-u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$J$86:$J$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>2.008544444444444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.169476805555556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.769827916666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2122079440"/>
-        <c:axId val="2122133408"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2122079440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Machine Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5613,7 +6183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122133408"/>
+        <c:crossAx val="-2039518240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5621,8 +6191,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122133408"/>
+        <c:axId val="-2039518240"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5659,7 +6230,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Execution time (hr)</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5690,7 +6261,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5718,7 +6289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122079440"/>
+        <c:crossAx val="-2031172816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5726,6 +6297,7 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="sysDash"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5826,7 +6398,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance comparison on nyc dataset (degree2 partition)</a:t>
+              <a:t>Performance comparison between even-partition and degree2-partition on nyc dataset</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5860,213 +6432,454 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:strRef>
+              <c:f>nyc!$E$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>even-u3-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$58,nyc!$L$58,nyc!$P$58)</c:f>
+              <c:f>nyc!$E$86:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.826007916666667</c:v>
+                  <c:v>2.921112222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.323881944444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.425416388888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:strRef>
+              <c:f>nyc!$F$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>even-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$59,nyc!$L$59,nyc!$P$59)</c:f>
+              <c:f>nyc!$F$86:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.056425833333333</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>1.521579027777778</c:v>
+                  <c:v>1.929355555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.008544444444444</c:v>
+                  <c:v>1.012693472222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.634970138888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>8</c:v>
+            <c:strRef>
+              <c:f>nyc!$G$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>even-u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$60,nyc!$L$60,nyc!$P$60)</c:f>
+              <c:f>nyc!$G$86:$G$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.56812875</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>0.799164166666667</c:v>
+                  <c:v>2.643145833333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.169476805555556</c:v>
+                  <c:v>1.382870972222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881812638888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>16</c:v>
+            <c:strRef>
+              <c:f>nyc!$H$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree2-u3-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$61,nyc!$L$61,nyc!$P$61)</c:f>
+              <c:f>nyc!$H$86:$H$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2.826007916666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.056425833333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56812875</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.364936805555556</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5387025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.769827916666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$I$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree2-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$I$86:$I$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1.521579027777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.799164166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5387025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$J$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree2-u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$J$86:$J$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>2.008544444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.169476805555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.769827916666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6076,18 +6889,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2059093072"/>
-        <c:axId val="-2122052208"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2009423024"/>
+        <c:axId val="-2009392304"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059093072"/>
+        <c:axId val="-2009423024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Machine Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6122,7 +6984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122052208"/>
+        <c:crossAx val="-2009392304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6130,7 +6992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122052208"/>
+        <c:axId val="-2009392304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,6 +7012,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time (hr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6178,7 +7089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059093072"/>
+        <c:crossAx val="-2009423024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6286,7 +7197,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speedup on nyc dataset (degree2-partition)</a:t>
+              <a:t>Performance comparison on nyc dataset (degree2 partition)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6320,525 +7231,213 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>nyc!$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u3-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>u5-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nyc!$E$65:$E$69</c:f>
+              <c:f>(nyc!$H$58,nyc!$L$58,nyc!$P$58)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.350130274171323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.948477054423552</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.48765634841649</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.826007916666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>u3-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>u5-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(nyc!$H$59,nyc!$L$59,nyc!$P$59)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.056425833333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.521579027777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.008544444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>nyc!$F$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>8</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>u5-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nyc!$F$65:$F$69</c:f>
+              <c:f>(nyc!$H$60,nyc!$L$60,nyc!$P$60)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.56812875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.799164166666667</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.615852117716044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.29810259115395</c:v>
+                  <c:v>1.169476805555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>nyc!$G$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>16</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>u5-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nyc!$G$65:$G$69</c:f>
+              <c:f>(nyc!$H$61,nyc!$L$61,nyc!$P$61)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.364936805555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5387025</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.86989065504482</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.43632947550869</c:v>
+                  <c:v>0.769827916666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>u3-1-estimate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="bg2">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$J$65:$J$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>u5-1-estimate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$K$65:$K$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>u7-1-estimate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$L$65:$L$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6848,13 +7447,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2122145808"/>
-        <c:axId val="2122150768"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2071190368"/>
+        <c:axId val="-2064384144"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2122145808"/>
+        <c:axId val="-2071190368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6894,7 +7493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122150768"/>
+        <c:crossAx val="-2064384144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6902,9 +7501,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122150768"/>
+        <c:axId val="-2064384144"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6923,7 +7521,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6951,7 +7549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122145808"/>
+        <c:crossAx val="-2071190368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7059,12 +7657,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution time break-down on nyc dataset (degree2-partition)</a:t>
+              <a:t>Speedup on nyc dataset (degree2-partition)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7094,464 +7691,525 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$O$42</c:f>
+              <c:f>nyc!$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>read graph</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$O$43:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.331783333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17835</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$P$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>color graph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$P$43:$P$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.2729</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.442975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$Q$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compute1 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$Q$43:$Q$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.777158333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.921933333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$R$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rotate1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$R$43:$R$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12.122075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$S$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compute2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$S$43:$S$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.373416666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.261616666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$T$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rotate2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$T$43:$T$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12.16748333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.954400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$U$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>allreduce</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$U$43:$U$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.178258333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$V$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$E$65:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.350130274171323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.948477054423552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.48765634841649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$F$65:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.615852117716044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.29810259115395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$G$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$G$65:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.86989065504482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.43632947550869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>u3-1-estimate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8-node</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$V$43:$V$44</c:f>
+              <c:f>nyc!$J$65:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.253575</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.502075</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>u5-1-estimate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$K$65:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>u7-1-estimate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$L$65:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7561,73 +8219,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="-2077035408"/>
-        <c:axId val="2122292208"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2071305856"/>
+        <c:axId val="-2068465904"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077035408"/>
+        <c:axId val="-2071305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7662,7 +8265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122292208"/>
+        <c:crossAx val="-2068465904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7670,12 +8273,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122292208"/>
+        <c:axId val="-2068465904"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7690,61 +8294,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mins)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7773,7 +8322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077035408"/>
+        <c:crossAx val="-2071305856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7787,7 +8336,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7881,30 +8429,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Execution </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time break-down on nyc dataset (degree2-partition)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>time break-down</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7943,7 +8473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$M$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$O$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7966,7 +8496,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7980,15 +8510,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$M$42:$M$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$O$43:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.514433333333333</c:v>
+                  <c:v>0.331783333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.211083333333333</c:v>
+                  <c:v>0.17835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7999,7 +8529,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$N$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$P$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8023,7 +8553,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8037,15 +8567,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$N$42:$N$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$P$43:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.285958333333333</c:v>
+                  <c:v>1.2729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.423466666666667</c:v>
+                  <c:v>0.442975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8056,7 +8586,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$O$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$Q$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8077,7 +8607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8091,15 +8621,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$O$42:$O$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$Q$43:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.289908333333333</c:v>
+                  <c:v>2.777158333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.485291666666667</c:v>
+                  <c:v>2.921933333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8110,7 +8640,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$P$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$R$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8131,7 +8661,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8145,15 +8675,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$P$42:$P$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$R$43:$R$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.42543333333333</c:v>
+                  <c:v>12.122075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.305916666666666</c:v>
+                  <c:v>7.8371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8164,7 +8694,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$Q$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$S$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8185,7 +8715,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8199,15 +8729,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$Q$42:$Q$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$S$43:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.666808333333333</c:v>
+                  <c:v>2.373416666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.135025</c:v>
+                  <c:v>2.261616666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8218,7 +8748,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$R$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$T$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8239,7 +8769,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8253,15 +8783,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$R$42:$R$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$T$43:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.31495</c:v>
+                  <c:v>12.16748333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.22485</c:v>
+                  <c:v>7.954400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8272,7 +8802,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$S$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$U$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8293,7 +8823,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8307,15 +8837,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$S$42:$S$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$U$43:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.5726</c:v>
+                  <c:v>0.178258333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.236958333333333</c:v>
+                  <c:v>0.08855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8326,7 +8856,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$T$41</c:f>
+              <c:f>'nyc-u-d-breakdown'!$V$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8337,8 +8867,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -8347,9 +8877,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'nyc-u-e-breakdown'!$L$42:$L$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8363,15 +8909,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-e-breakdown'!$T$42:$T$43</c:f>
+              <c:f>'nyc-u-d-breakdown'!$V$43:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.454325</c:v>
+                  <c:v>1.253575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.514925</c:v>
+                  <c:v>0.502075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8387,11 +8933,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2033096624"/>
-        <c:axId val="-2033045040"/>
+        <c:axId val="-2010461328"/>
+        <c:axId val="-2011109552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2033096624"/>
+        <c:axId val="-2010461328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8414,30 +8960,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Nuber</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" baseline="0"/>
                   <a:t> of nodes</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8498,7 +9031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033045040"/>
+        <c:crossAx val="-2011109552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8506,7 +9039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2033045040"/>
+        <c:axId val="-2011109552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8543,30 +9076,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US" baseline="0"/>
                   <a:t> (mins)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8621,7 +9141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033096624"/>
+        <c:crossAx val="-2010461328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8635,7 +9155,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8681,7 +9200,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8775,6 +9298,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9638,7 +10201,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9842,22 +10405,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9962,8 +10526,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10095,19 +10659,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10643,8 +11208,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11146,8 +11711,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11649,8 +12214,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12152,8 +12717,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12655,8 +13220,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13158,7 +13723,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13661,8 +14226,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13866,23 +14431,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13987,8 +14551,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14120,12 +14684,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -14134,6 +14988,218 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14745,6 +15811,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -14805,16 +15906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14896,7 +15997,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14931,7 +16032,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14966,7 +16067,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15296,8 +16397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15787,6 +16888,26 @@
       <c r="X12" s="16">
         <f t="shared" si="4"/>
         <v>80464.666666666672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>727385184</v>
+      </c>
+      <c r="I14">
+        <v>2176724799375</v>
+      </c>
+      <c r="M14">
+        <v>29375507418411</v>
+      </c>
+      <c r="Q14">
+        <v>636274341419375</v>
+      </c>
+      <c r="V14">
+        <v>2.41862947828096E+17</v>
       </c>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
@@ -16350,16 +17471,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:X20"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:X20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16370,8 +17491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="N23" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16880,6 +18001,26 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16">
+        <v>3814606989</v>
+      </c>
+      <c r="I16">
+        <v>23716760889192</v>
+      </c>
+      <c r="M16">
+        <v>30642182278958</v>
+      </c>
+      <c r="Q16">
+        <v>4089072580442</v>
+      </c>
+      <c r="U16">
+        <v>2.7831510853377501E+17</v>
       </c>
     </row>
     <row r="19" spans="4:24" x14ac:dyDescent="0.2">
@@ -17669,16 +18810,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="Q29:T29"/>
     <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17687,15 +18828,646 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="B4:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="33"/>
+    </row>
+    <row r="7" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D9" s="13"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>138916</v>
+      </c>
+      <c r="F10">
+        <v>136874</v>
+      </c>
+      <c r="G10">
+        <v>139994</v>
+      </c>
+      <c r="H10" s="12">
+        <f>AVERAGE(E10:G10)</f>
+        <v>138594.66666666666</v>
+      </c>
+      <c r="I10" s="2">
+        <v>136046</v>
+      </c>
+      <c r="J10" s="2">
+        <v>141927</v>
+      </c>
+      <c r="K10">
+        <v>137919</v>
+      </c>
+      <c r="L10" s="12">
+        <f>AVERAGE(I10:K10)</f>
+        <v>138630.66666666666</v>
+      </c>
+      <c r="M10" s="2">
+        <v>138980</v>
+      </c>
+      <c r="N10" s="2">
+        <v>139173</v>
+      </c>
+      <c r="O10">
+        <v>139925</v>
+      </c>
+      <c r="P10" s="12">
+        <f>AVERAGE(M10:O10)</f>
+        <v>139359.33333333334</v>
+      </c>
+      <c r="Q10">
+        <v>136999</v>
+      </c>
+      <c r="R10" s="2">
+        <v>140952</v>
+      </c>
+      <c r="S10">
+        <v>139001</v>
+      </c>
+      <c r="T10" s="12">
+        <f>AVERAGE(Q10:S10)</f>
+        <v>138984</v>
+      </c>
+      <c r="U10">
+        <v>144032</v>
+      </c>
+      <c r="V10" s="2">
+        <v>141094</v>
+      </c>
+      <c r="W10">
+        <v>139890</v>
+      </c>
+      <c r="X10" s="12">
+        <f>AVERAGE(U10:W10)</f>
+        <v>141672</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D11" s="13"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D12" s="13"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>21553410741640</v>
+      </c>
+      <c r="F15">
+        <v>21543794552890</v>
+      </c>
+      <c r="G15">
+        <v>21547474783489</v>
+      </c>
+      <c r="I15">
+        <v>32623376649427</v>
+      </c>
+      <c r="J15">
+        <v>32634841981588</v>
+      </c>
+      <c r="K15">
+        <v>32623370198098</v>
+      </c>
+      <c r="M15">
+        <v>49139987249322</v>
+      </c>
+      <c r="N15">
+        <v>49136756059401</v>
+      </c>
+      <c r="O15">
+        <v>49123189317083</v>
+      </c>
+      <c r="Q15">
+        <v>72599923493828</v>
+      </c>
+      <c r="R15">
+        <v>72590133962526</v>
+      </c>
+      <c r="S15">
+        <v>72601709849244</v>
+      </c>
+      <c r="U15">
+        <v>104968831185104</v>
+      </c>
+      <c r="V15">
+        <v>104999545564635</v>
+      </c>
+      <c r="W15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="33"/>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="12"/>
+    </row>
+    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D24" s="13"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D25" s="13">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <f>E10/1000</f>
+        <v>138.916</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25:X25" si="0">F10/1000</f>
+        <v>136.874</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>139.994</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>138.59466666666665</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>136.04599999999999</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>141.92699999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>137.91900000000001</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="0"/>
+        <v>138.63066666666666</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="0"/>
+        <v>138.97999999999999</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>139.173</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="0"/>
+        <v>139.92500000000001</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="0"/>
+        <v>139.35933333333335</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="0"/>
+        <v>136.999</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="0"/>
+        <v>140.952</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="0"/>
+        <v>139.001</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" si="0"/>
+        <v>138.98400000000001</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="0"/>
+        <v>144.03200000000001</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="0"/>
+        <v>141.09399999999999</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="0"/>
+        <v>139.88999999999999</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="0"/>
+        <v>141.672</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D26" s="13"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D27" s="13"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -17742,42 +19514,42 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -17978,44 +19750,44 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
@@ -18399,42 +20171,42 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D46" s="22"/>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34" t="s">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34" t="s">
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
@@ -18624,42 +20396,42 @@
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D56" s="22"/>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34" t="s">
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34" t="s">
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D57" s="22" t="s">
@@ -19175,8 +20947,268 @@
         <v>1.1454672139029627</v>
       </c>
     </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111" t="s">
+        <v>70</v>
+      </c>
+      <c r="F111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D113" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="33"/>
+      <c r="U113" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="33"/>
+    </row>
+    <row r="114" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D114" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P114" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T114" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X114" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D115" s="13">
+        <v>1</v>
+      </c>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="18"/>
+      <c r="V115" s="18"/>
+      <c r="W115" s="18"/>
+      <c r="X115" s="16"/>
+    </row>
+    <row r="116" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D116" s="13">
+        <v>2</v>
+      </c>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="18"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="18"/>
+      <c r="V116" s="18"/>
+      <c r="W116" s="18"/>
+      <c r="X116" s="16"/>
+    </row>
+    <row r="117" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D117" s="13">
+        <v>4</v>
+      </c>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="18"/>
+      <c r="V117" s="18"/>
+      <c r="W117" s="18"/>
+      <c r="X117" s="16"/>
+    </row>
+    <row r="118" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D118" s="13">
+        <v>8</v>
+      </c>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="16"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="18"/>
+      <c r="X118" s="16"/>
+    </row>
+    <row r="119" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D119" s="13">
+        <v>16</v>
+      </c>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="18"/>
+      <c r="V119" s="18"/>
+      <c r="W119" s="18"/>
+      <c r="X119" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="21">
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="D45:P45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="D55:P55"/>
     <mergeCell ref="D5:P5"/>
     <mergeCell ref="D17:P17"/>
     <mergeCell ref="E18:H18"/>
@@ -19185,25 +21217,22 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="D45:P45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="D55:P55"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="Q113:T113"/>
+    <mergeCell ref="U113:X113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="H37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
@@ -20861,17 +22890,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="G40:H41"/>
@@ -20885,13 +22903,24 @@
     <mergeCell ref="C76:D77"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U88"/>
   <sheetViews>
@@ -20914,31 +22943,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2">
         <v>24884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="2">
         <v>79714</v>
       </c>
@@ -21165,22 +23194,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2">
         <v>36848</v>
       </c>
@@ -21189,10 +23218,10 @@
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="2">
         <v>74601</v>
       </c>
@@ -21496,10 +23525,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="2">
         <f t="shared" ref="D39:D47" si="0">AVERAGE(D22,D5)</f>
         <v>30866</v>
@@ -21544,10 +23573,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>77157.5</v>
@@ -21886,31 +23915,31 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="35"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="2">
         <v>12941</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="2">
         <v>23739</v>
       </c>
@@ -22223,31 +24252,31 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="35"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="2">
         <v>12389</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="35"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="2">
         <v>27078</v>
       </c>
@@ -22556,6 +24585,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
@@ -22570,29 +24615,13 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O16"/>
   <sheetViews>
@@ -22996,7 +25025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -23038,42 +25067,42 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
@@ -23203,42 +25232,42 @@
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">

--- a/experiments/analysis/experiments-on-juliet-201703.xlsx
+++ b/experiments/analysis/experiments-on-juliet-201703.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24120" windowHeight="14280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="web-google" sheetId="3" r:id="rId1"/>
     <sheet name="miami" sheetId="2" r:id="rId2"/>
     <sheet name="miami-u-cl" sheetId="8" r:id="rId3"/>
-    <sheet name="nyc" sheetId="1" r:id="rId4"/>
-    <sheet name="nyc-u-d-breakdown" sheetId="6" r:id="rId5"/>
-    <sheet name="nyc-u-e-breakdown" sheetId="4" r:id="rId6"/>
-    <sheet name="redraw" sheetId="5" r:id="rId7"/>
-    <sheet name="twitter" sheetId="7" r:id="rId8"/>
+    <sheet name="nyc-u-cl" sheetId="9" r:id="rId4"/>
+    <sheet name="nyc" sheetId="1" r:id="rId5"/>
+    <sheet name="nyc-u-d-breakdown" sheetId="6" r:id="rId6"/>
+    <sheet name="nyc-u-e-breakdown" sheetId="4" r:id="rId7"/>
+    <sheet name="redraw" sheetId="5" r:id="rId8"/>
+    <sheet name="twitter" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="136">
   <si>
     <t>u3-1</t>
   </si>
@@ -419,6 +420,27 @@
   <si>
     <t>on miami-u-cl.4nodes.40threads.20170316.log and miami-u-cl.4nodes.40threads.20170316-2.log</t>
   </si>
+  <si>
+    <t>nyc-u-cl.u5-1.4nodes.40threads.20170316.log</t>
+  </si>
+  <si>
+    <t>nyc-u-cl0</t>
+  </si>
+  <si>
+    <t>nyc-u-cl1</t>
+  </si>
+  <si>
+    <t>nyc-u-cl2</t>
+  </si>
+  <si>
+    <t>nyc-u-cl3</t>
+  </si>
+  <si>
+    <t>nyc-u-cl4</t>
+  </si>
+  <si>
+    <t>unit: hr</t>
+  </si>
 </sst>
 </file>
 
@@ -693,13 +715,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1262,11 +1284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2012680992"/>
-        <c:axId val="-2101293456"/>
+        <c:axId val="2136156432"/>
+        <c:axId val="2136164496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2012680992"/>
+        <c:axId val="2136156432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101293456"/>
+        <c:crossAx val="2136164496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1363,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101293456"/>
+        <c:axId val="2136164496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012680992"/>
+        <c:crossAx val="2136156432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1567,6 +1589,825 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time break-down on nyc dataset (degree2-partition)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$O$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$O$43:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.331783333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$P$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>color graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$P$43:$P$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.442975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$Q$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compute1 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$Q$43:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.777158333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.921933333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$R$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rotate1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$R$43:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.122075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$S$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compute2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$S$43:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.373416666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.261616666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$T$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rotate2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$T$43:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.16748333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.954400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$U$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>allreduce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$U$43:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.178258333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$V$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8-node</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'nyc-u-d-breakdown'!$V$43:$V$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.253575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.502075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2116696560"/>
+        <c:axId val="-2118721536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2116696560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118721536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2118721536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mins)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116696560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2072,11 +2913,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2035932976"/>
-        <c:axId val="-2017141824"/>
+        <c:axId val="-2116649856"/>
+        <c:axId val="2136556960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035932976"/>
+        <c:axId val="-2116649856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +3023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2017141824"/>
+        <c:crossAx val="2136556960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +3031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2017141824"/>
+        <c:axId val="2136556960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,702 +3145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035932976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Performance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> comparison on the Web-google dataset</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>redraw!$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HarpSahad-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>redraw!$D$12:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>37.508</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.749</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.729</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>redraw!$E$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sahad-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>redraw!$E$12:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>195.992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>196.042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190.941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200.955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205.949</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>redraw!$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HarpSahad-u7-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>redraw!$F$12:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>48.689</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55.477</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.646</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.537</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.618</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>redraw!$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sahad-u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>redraw!$C$12:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>redraw!$G$12:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>265.982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>275.982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>270.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>281.032</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>271.042</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2008500064"/>
-        <c:axId val="-2012134688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2008500064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> of Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2012134688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2012134688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Execution</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> time (second)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2008500064"/>
+        <c:crossAx val="-2116649856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3115,7 +3261,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> comparison on the Miami dataset</a:t>
+              <a:t> comparison on the Web-google dataset</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
@@ -3163,7 +3309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$L$11</c:f>
+              <c:f>redraw!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3184,20 +3330,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3205,21 +3354,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$L$12:$L$15</c:f>
+              <c:f>redraw!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.767</c:v>
+                  <c:v>37.508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.703</c:v>
+                  <c:v>44.442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.455</c:v>
+                  <c:v>40.592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.187</c:v>
+                  <c:v>46.749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,7 +3382,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$M$11</c:f>
+              <c:f>redraw!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3253,20 +3405,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3274,21 +3429,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$M$12:$M$15</c:f>
+              <c:f>redraw!$E$12:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>805.985</c:v>
+                  <c:v>195.992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>865.956</c:v>
+                  <c:v>196.042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>776.073</c:v>
+                  <c:v>190.941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>880.999</c:v>
+                  <c:v>200.955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,7 +3457,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$N$11</c:f>
+              <c:f>redraw!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3320,20 +3478,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3341,21 +3502,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$N$12:$N$15</c:f>
+              <c:f>redraw!$F$12:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>355.056</c:v>
+                  <c:v>48.689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.405</c:v>
+                  <c:v>55.477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136.158</c:v>
+                  <c:v>51.646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.959</c:v>
+                  <c:v>54.537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,7 +3530,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>redraw!$O$11</c:f>
+              <c:f>redraw!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3387,20 +3551,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:f>redraw!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3408,21 +3575,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>redraw!$O$12:$O$15</c:f>
+              <c:f>redraw!$G$12:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1746.013</c:v>
+                  <c:v>265.982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1461.103</c:v>
+                  <c:v>275.982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1536.026</c:v>
+                  <c:v>270.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1501.104</c:v>
+                  <c:v>281.032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,11 +3608,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2131567792"/>
-        <c:axId val="2129252768"/>
+        <c:axId val="2136638112"/>
+        <c:axId val="2136644496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131567792"/>
+        <c:axId val="2136638112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129252768"/>
+        <c:crossAx val="2136644496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3556,7 +3726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129252768"/>
+        <c:axId val="2136644496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3840,678 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131567792"/>
+        <c:crossAx val="2136638112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> comparison on the Miami dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HarpSahad-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91.767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sahad-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$M$12:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>805.985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>865.956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>776.073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HarpSahad-u7-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$N$12:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>355.056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redraw!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sahad-u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>redraw!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>redraw!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1746.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1461.103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536.026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1501.104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2136703184"/>
+        <c:axId val="2136709568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2136703184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136709568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136709568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> time (second)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136703184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4261,11 +5102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2012929440"/>
-        <c:axId val="-2101111312"/>
+        <c:axId val="2136257440"/>
+        <c:axId val="2136263232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2012929440"/>
+        <c:axId val="2136257440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +5195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101111312"/>
+        <c:crossAx val="2136263232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4362,7 +5203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101111312"/>
+        <c:axId val="2136263232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -4461,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012929440"/>
+        <c:crossAx val="2136257440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50.0"/>
@@ -4587,7 +5428,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4695,11 +5535,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2035171248"/>
-        <c:axId val="-2034983008"/>
+        <c:axId val="2136292400"/>
+        <c:axId val="2136298592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035171248"/>
+        <c:axId val="2136292400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4736,7 +5576,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4803,7 +5642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2034983008"/>
+        <c:crossAx val="2136298592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4811,7 +5650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2034983008"/>
+        <c:axId val="2136298592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4862,7 +5701,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4923,7 +5761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035171248"/>
+        <c:crossAx val="2136292400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5032,6 +5870,409 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance comparison on nyc dataset with u5-1 template on 4 nodes (40 threads per node) </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('nyc-u-cl'!$H$16,'nyc-u-cl'!$L$16,'nyc-u-cl'!$P$16,'nyc-u-cl'!$T$16,'nyc-u-cl'!$X$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>cl0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cl1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cl2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cl3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cl4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('nyc-u-cl'!$H$19,'nyc-u-cl'!$L$19,'nyc-u-cl'!$P$19,'nyc-u-cl'!$T$19,'nyc-u-cl'!$X$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.249526805555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.977982222222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.303491805555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.506770277777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56856125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2136324512"/>
+        <c:axId val="2136327840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2136324512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136327840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136327840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time (hr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136324512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -5052,6 +6293,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5300,11 +6542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2039299712"/>
-        <c:axId val="-2044895616"/>
+        <c:axId val="-2120979312"/>
+        <c:axId val="-2120958064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2039299712"/>
+        <c:axId val="-2120979312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5350,6 +6592,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5410,7 +6653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044895616"/>
+        <c:crossAx val="-2120958064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5418,7 +6661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044895616"/>
+        <c:axId val="-2120958064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,6 +6713,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5524,7 +6768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039299712"/>
+        <c:crossAx val="-2120979312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5538,6 +6782,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5596,7 +6841,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5633,6 +6878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6086,11 +7332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2031172816"/>
-        <c:axId val="-2039518240"/>
+        <c:axId val="-2116874896"/>
+        <c:axId val="-2116869200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2031172816"/>
+        <c:axId val="-2116874896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6123,6 +7369,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6183,7 +7430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039518240"/>
+        <c:crossAx val="-2116869200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6191,7 +7438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2039518240"/>
+        <c:axId val="-2116869200"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6235,6 +7482,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6289,7 +7537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031172816"/>
+        <c:crossAx val="-2116874896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6304,805 +7552,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Performance comparison between even-partition and degree2-partition on nyc dataset</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$E$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>even-u3-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$E$86:$E$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.921112222222222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.323881944444444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.425416388888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$F$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>even-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$F$86:$F$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>1.929355555555556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.012693472222222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.634970138888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$G$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>even-u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$G$86:$G$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>2.643145833333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.382870972222222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.881812638888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$H$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>degree2-u3-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$H$86:$H$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.826007916666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.056425833333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56812875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.364936805555556</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$I$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>degree2-u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$I$86:$I$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>1.521579027777778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.799164166666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5387025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nyc!$J$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>degree2-u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$86:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$J$86:$J$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>2.008544444444444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.169476805555556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.769827916666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2009423024"/>
-        <c:axId val="-2009392304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2009423024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Machine Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2009392304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2009392304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution time (hr)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2009423024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7197,11 +7647,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance comparison on nyc dataset (degree2 partition)</a:t>
+              <a:t>Performance comparison between even-partition and degree2-partition on nyc dataset</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7231,213 +7682,454 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:strRef>
+              <c:f>nyc!$E$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>even-u3-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$58,nyc!$L$58,nyc!$P$58)</c:f>
+              <c:f>nyc!$E$86:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.826007916666667</c:v>
+                  <c:v>2.921112222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.323881944444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.425416388888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:strRef>
+              <c:f>nyc!$F$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>even-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$59,nyc!$L$59,nyc!$P$59)</c:f>
+              <c:f>nyc!$F$86:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.056425833333333</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>1.521579027777778</c:v>
+                  <c:v>1.929355555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.008544444444444</c:v>
+                  <c:v>1.012693472222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.634970138888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>8</c:v>
+            <c:strRef>
+              <c:f>nyc!$G$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>even-u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$60,nyc!$L$60,nyc!$P$60)</c:f>
+              <c:f>nyc!$G$86:$G$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.56812875</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>0.799164166666667</c:v>
+                  <c:v>2.643145833333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.169476805555556</c:v>
+                  <c:v>1.382870972222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881812638888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>16</c:v>
+            <c:strRef>
+              <c:f>nyc!$H$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree2-u3-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>u5-1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(nyc!$H$61,nyc!$L$61,nyc!$P$61)</c:f>
+              <c:f>nyc!$H$86:$H$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2.826007916666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.056425833333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56812875</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.364936805555556</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5387025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.769827916666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$I$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree2-u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$I$86:$I$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1.521579027777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.799164166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5387025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$J$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree2-u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$86:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$J$86:$J$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>2.008544444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.169476805555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.769827916666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7447,18 +8139,68 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2071190368"/>
-        <c:axId val="-2064384144"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2116810640"/>
+        <c:axId val="-2116804624"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071190368"/>
+        <c:axId val="-2116810640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Machine Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7493,7 +8235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064384144"/>
+        <c:crossAx val="-2116804624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7501,7 +8243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064384144"/>
+        <c:axId val="-2116804624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7521,6 +8263,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time (hr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7549,7 +8341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071190368"/>
+        <c:crossAx val="-2116810640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7563,6 +8355,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7657,7 +8450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speedup on nyc dataset (degree2-partition)</a:t>
+              <a:t>Performance comparison on nyc dataset (degree2 partition)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7691,525 +8484,213 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>nyc!$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u3-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>u5-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nyc!$E$65:$E$69</c:f>
+              <c:f>(nyc!$H$58,nyc!$L$58,nyc!$P$58)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.350130274171323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.948477054423552</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.48765634841649</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.826007916666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>u3-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>u5-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(nyc!$H$59,nyc!$L$59,nyc!$P$59)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.056425833333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.521579027777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.008544444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>nyc!$F$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u5-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>8</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>u5-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nyc!$F$65:$F$69</c:f>
+              <c:f>(nyc!$H$60,nyc!$L$60,nyc!$P$60)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.56812875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.799164166666667</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.615852117716044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.29810259115395</c:v>
+                  <c:v>1.169476805555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>nyc!$G$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u7-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>16</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>(nyc!$H$57,nyc!$L$57,nyc!$P$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>u5-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nyc!$G$65:$G$69</c:f>
+              <c:f>(nyc!$H$61,nyc!$L$61,nyc!$P$61)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.364936805555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5387025</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.86989065504482</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.43632947550869</c:v>
+                  <c:v>0.769827916666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>u3-1-estimate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="bg2">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$J$65:$J$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>u5-1-estimate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$K$65:$K$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>u7-1-estimate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nyc!$D$65:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nyc!$L$65:$L$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8219,13 +8700,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2071305856"/>
-        <c:axId val="-2068465904"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2136436672"/>
+        <c:axId val="2136440128"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2071305856"/>
+        <c:axId val="2136436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8265,7 +8746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068465904"/>
+        <c:crossAx val="2136440128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8273,9 +8754,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068465904"/>
+        <c:axId val="2136440128"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8294,7 +8774,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8322,7 +8802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071305856"/>
+        <c:crossAx val="2136436672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8430,7 +8910,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution time break-down on nyc dataset (degree2-partition)</a:t>
+              <a:t>Speedup on nyc dataset (degree2-partition)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8464,464 +8944,525 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$O$42</c:f>
+              <c:f>nyc!$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>read graph</c:v>
+                  <c:v>u3-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$O$43:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.331783333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17835</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$P$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>color graph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$P$43:$P$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.2729</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.442975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$Q$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compute1 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$Q$43:$Q$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.777158333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.921933333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$R$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rotate1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$R$43:$R$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12.122075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$S$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>compute2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$S$43:$S$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.373416666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.261616666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$T$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rotate2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$T$43:$T$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12.16748333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.954400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$U$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>allreduce</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8-node</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$U$43:$U$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.178258333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$V$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$E$65:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.350130274171323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.948477054423552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.48765634841649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u5-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$F$65:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.615852117716044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.29810259115395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nyc!$G$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u7-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$G$65:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.86989065504482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.43632947550869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>u3-1-estimate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>'nyc-u-d-breakdown'!$N$43:$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8-node</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16-node</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nyc-u-d-breakdown'!$V$43:$V$44</c:f>
+              <c:f>nyc!$J$65:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.253575</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.502075</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>u5-1-estimate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$K$65:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>u7-1-estimate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nyc!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nyc!$L$65:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8931,72 +9472,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="-2010461328"/>
-        <c:axId val="-2011109552"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2136521968"/>
+        <c:axId val="2136524992"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2010461328"/>
+        <c:axId val="2136521968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9031,7 +9518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011109552"/>
+        <c:crossAx val="2136524992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9039,12 +9526,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011109552"/>
+        <c:axId val="2136524992"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9059,60 +9547,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mins)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9141,7 +9575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2010461328"/>
+        <c:crossAx val="2136521968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9338,6 +9772,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10706,7 +11180,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10910,22 +11384,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11030,8 +11505,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11163,19 +11638,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11711,8 +12187,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12214,8 +12690,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12717,7 +13193,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13220,8 +13696,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13723,8 +14199,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14226,8 +14702,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14729,7 +15205,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15232,8 +15708,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15437,23 +15913,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -15558,8 +16033,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15691,12 +16166,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -15705,6 +16470,218 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15843,6 +16820,41 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15997,7 +17009,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16032,7 +17044,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16067,7 +17079,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16397,8 +17409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16908,6 +17920,11 @@
       </c>
       <c r="V14">
         <v>2.41862947828096E+17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
@@ -17471,16 +18488,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="Q20:T20"/>
     <mergeCell ref="U20:X20"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17491,8 +18508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="I1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18810,16 +19827,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:X29"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18830,8 +19847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19441,16 +20458,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="Q21:T21"/>
     <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19459,10 +20476,603 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:X21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+    </row>
+    <row r="6" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D7" s="13"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D9" s="13">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>896374</v>
+      </c>
+      <c r="F9">
+        <v>900219</v>
+      </c>
+      <c r="H9" s="12">
+        <f>AVERAGE(E9:G9)</f>
+        <v>898296.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3459500</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3581972</v>
+      </c>
+      <c r="L9" s="12">
+        <f>AVERAGE(I9:K9)</f>
+        <v>3520736</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4521129</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4864012</v>
+      </c>
+      <c r="P9" s="12">
+        <f>AVERAGE(M9:O9)</f>
+        <v>4692570.5</v>
+      </c>
+      <c r="Q9">
+        <v>5434308</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5414438</v>
+      </c>
+      <c r="T9" s="12">
+        <f>AVERAGE(Q9:S9)</f>
+        <v>5424373</v>
+      </c>
+      <c r="U9">
+        <v>5568840</v>
+      </c>
+      <c r="V9" s="2">
+        <v>5724801</v>
+      </c>
+      <c r="X9" s="12">
+        <f>AVERAGE(U9:W9)</f>
+        <v>5646820.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D10" s="13"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D11" s="13"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>15739408358281</v>
+      </c>
+      <c r="F13">
+        <v>15740513533750</v>
+      </c>
+      <c r="I13">
+        <v>16596907130885</v>
+      </c>
+      <c r="J13">
+        <v>16594925156536</v>
+      </c>
+      <c r="M13">
+        <v>18101012633333</v>
+      </c>
+      <c r="N13">
+        <v>18108128017005</v>
+      </c>
+      <c r="Q13">
+        <v>20137903074817</v>
+      </c>
+      <c r="R13">
+        <v>20129769777500</v>
+      </c>
+      <c r="U13">
+        <v>22614717785208</v>
+      </c>
+      <c r="V13">
+        <v>22620181861328</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="33"/>
+    </row>
+    <row r="16" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D17" s="13"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D18" s="13"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D19" s="13">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16">
+        <f>E9/1000/60/60</f>
+        <v>0.24899277777777779</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" ref="F19:X19" si="0">F9/1000/60/60</f>
+        <v>0.25006083333333334</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.24952680555555556</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.96097222222222223</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99499222222222228</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.9779822222222222</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2558691666666666</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3511144444444443</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3034918055555555</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.50953</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5040105555555556</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5067702777777778</v>
+      </c>
+      <c r="U19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5469000000000002</v>
+      </c>
+      <c r="V19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5902225000000001</v>
+      </c>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5685612499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:X5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19514,42 +21124,42 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
@@ -19750,44 +21360,44 @@
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
@@ -20171,42 +21781,42 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D46" s="22"/>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36" t="s">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
@@ -20396,42 +22006,42 @@
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D56" s="22"/>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36" t="s">
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36" t="s">
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D57" s="22" t="s">
@@ -21201,6 +22811,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="Q113:T113"/>
+    <mergeCell ref="U113:X113"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="I56:L56"/>
     <mergeCell ref="M56:P56"/>
@@ -21209,26 +22832,13 @@
     <mergeCell ref="I46:L46"/>
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="D55:P55"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="Q113:T113"/>
-    <mergeCell ref="U113:X113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W90"/>
   <sheetViews>
@@ -22890,6 +24500,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="G40:H41"/>
@@ -22903,24 +24524,13 @@
     <mergeCell ref="C76:D77"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U88"/>
   <sheetViews>
@@ -22943,31 +24553,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="2">
         <v>24884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="2">
         <v>79714</v>
       </c>
@@ -23194,22 +24804,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="2">
         <v>36848</v>
       </c>
@@ -23218,10 +24828,10 @@
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="2">
         <v>74601</v>
       </c>
@@ -23525,10 +25135,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="2">
         <f t="shared" ref="D39:D47" si="0">AVERAGE(D22,D5)</f>
         <v>30866</v>
@@ -23573,10 +25183,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>77157.5</v>
@@ -23915,31 +25525,31 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="34"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="2">
         <v>12941</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="2">
         <v>23739</v>
       </c>
@@ -24252,31 +25862,31 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="2">
         <v>12389</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="2">
         <v>27078</v>
       </c>
@@ -24585,22 +26195,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
@@ -24615,13 +26209,29 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O16"/>
   <sheetViews>
@@ -25025,7 +26635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -25067,42 +26677,42 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E7" s="2"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
@@ -25232,42 +26842,42 @@
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34" t="s">
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
